--- a/data/HR1/A_BJ_35_2/A_BJ_35_2_2050.xlsx
+++ b/data/HR1/A_BJ_35_2/A_BJ_35_2_2050.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\HR1\A_BJ_35_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51362999-B5B5-4BA2-8452-BAD14A27F709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70112610-8769-4BD6-8526-095626ABF256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId15"/>
-    <externalReference r:id="rId16"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Pc, Summer, S1'!#REF!</definedName>
@@ -630,6 +629,9 @@
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Pc, 2020, Autumn"/>
@@ -660,6 +662,16 @@
             <v>5.0000000000000001E-3</v>
           </cell>
         </row>
+        <row r="4">
+          <cell r="B4">
+            <v>0.05</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>0.01</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
@@ -2599,73 +2611,6 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Pc, 2020, Autumn"/>
-      <sheetName val="Qc, 2020, Autumn"/>
-      <sheetName val="DownFlex, 2020, Autumn"/>
-      <sheetName val="UpFlex, 2020, Autumn"/>
-      <sheetName val="CostFlex, 2020, Autumn"/>
-      <sheetName val="Pc, 2020, Spring"/>
-      <sheetName val="Qc, 2020, Spring"/>
-      <sheetName val="DownFlex, 2020, Spring"/>
-      <sheetName val="UpFlex, 2020, Spring"/>
-      <sheetName val="CostFlex, 2020, Spring"/>
-      <sheetName val="Pc, 2020, Summer"/>
-      <sheetName val="Qc, 2020, Summer"/>
-      <sheetName val="DownFlex, 2020, Summer"/>
-      <sheetName val="UpFlex, 2020, Summer"/>
-      <sheetName val="CostFlex, 2020, Summer"/>
-      <sheetName val="Pc, 2020, Winter"/>
-      <sheetName val="Qc, 2020, Winter"/>
-      <sheetName val="DownFlex, 2020, Winter"/>
-      <sheetName val="UpFlex, 2020, Winter"/>
-      <sheetName val="CostFlex, 2020, Winter"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="4">
-          <cell r="B4">
-            <v>0.05</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>0.01</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
       <sheetData sheetId="13">
         <row r="2">
           <cell r="B2">
@@ -5558,11 +5503,11 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5857,7 +5802,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5868,7 +5813,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5882,10 +5827,10 @@
         <v>3</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="D1" s="1">
         <v>0.2</v>
@@ -5908,7 +5853,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="D2" s="2">
         <v>0.95</v>
@@ -5928,7 +5873,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="D3" s="2">
         <v>1.1000000000000001</v>
@@ -8861,99 +8806,99 @@
         <v>6</v>
       </c>
       <c r="B2" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!B2*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!B2*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.22053305699348091</v>
       </c>
       <c r="C2" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!C2*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!C2*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.20895202882687894</v>
       </c>
       <c r="D2" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!D2*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!D2*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.17440215290207697</v>
       </c>
       <c r="E2" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!E2*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!E2*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.19760101443348246</v>
       </c>
       <c r="F2" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!F2*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!F2*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.19378603204005987</v>
       </c>
       <c r="G2" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!G2*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!G2*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.19461998400768843</v>
       </c>
       <c r="H2" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!H2*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!H2*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.21472295872290487</v>
       </c>
       <c r="I2" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!I2*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!I2*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.23206885757667786</v>
       </c>
       <c r="J2" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!J2*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!J2*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.24194813096614481</v>
       </c>
       <c r="K2" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!K2*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!K2*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.23511250600150901</v>
       </c>
       <c r="L2" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!L2*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!L2*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.23205187851734688</v>
       </c>
       <c r="M2" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!M2*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!M2*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.25517883450426126</v>
       </c>
       <c r="N2" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!N2*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!N2*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.24876335944987152</v>
       </c>
       <c r="O2" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!O2*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!O2*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.24880515649151638</v>
       </c>
       <c r="P2" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!P2*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!P2*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.24181086916341171</v>
       </c>
       <c r="Q2" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!Q2*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!Q2*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.23849047673521911</v>
       </c>
       <c r="R2" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!R2*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!R2*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.23925405436079802</v>
       </c>
       <c r="S2" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!S2*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!S2*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.21470869322596517</v>
       </c>
       <c r="T2" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!T2*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!T2*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.25898681998168865</v>
       </c>
       <c r="U2" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!U2*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!U2*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.26271418734186192</v>
       </c>
       <c r="V2" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!V2*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!V2*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.24583211857201465</v>
       </c>
       <c r="W2" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!W2*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!W2*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.25129126045799549</v>
       </c>
       <c r="X2" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!X2*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!X2*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.23267582730496686</v>
       </c>
       <c r="Y2" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!Y2*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!Y2*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.20520322308897415</v>
       </c>
     </row>
@@ -8962,99 +8907,99 @@
         <v>5</v>
       </c>
       <c r="B3" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!B3*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!B3*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>-0.18567361114120282</v>
       </c>
       <c r="C3" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!C3*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!C3*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>-0.30229613473217043</v>
       </c>
       <c r="D3" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!D3*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!D3*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>-0.15971322523480919</v>
       </c>
       <c r="E3" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!E3*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!E3*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>-0.15257967411852125</v>
       </c>
       <c r="F3" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!F3*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!F3*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>-0.24014425254956201</v>
       </c>
       <c r="G3" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!G3*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!G3*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>-0.3998585968587362</v>
       </c>
       <c r="H3" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!H3*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!H3*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>-0.32375621941934518</v>
       </c>
       <c r="I3" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!I3*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!I3*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>-0.25929963599659867</v>
       </c>
       <c r="J3" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!J3*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!J3*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>-0.22361032781466453</v>
       </c>
       <c r="K3" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!K3*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!K3*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>-0.21742598097719276</v>
       </c>
       <c r="L3" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!L3*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!L3*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>-0.23246530703542415</v>
       </c>
       <c r="M3" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!M3*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!M3*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>-0.21099953359159809</v>
       </c>
       <c r="N3" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!N3*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!N3*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>-0.21979442392138551</v>
       </c>
       <c r="O3" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!O3*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!O3*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>-0.24217373095569969</v>
       </c>
       <c r="P3" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!P3*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!P3*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>-0.2785412599448544</v>
       </c>
       <c r="Q3" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!Q3*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!Q3*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>-0.30806516991953009</v>
       </c>
       <c r="R3" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!R3*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!R3*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>-0.3229430328412784</v>
       </c>
       <c r="S3" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!S3*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!S3*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>-0.28556247606105795</v>
       </c>
       <c r="T3" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!T3*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!T3*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>-0.25177830168780202</v>
       </c>
       <c r="U3" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!U3*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!U3*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>-9.6205694051120297E-2</v>
       </c>
       <c r="V3" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!V3*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!V3*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>-4.3151068373966497E-2</v>
       </c>
       <c r="W3" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!W3*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!W3*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>-0.13335711225146626</v>
       </c>
       <c r="X3" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!X3*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!X3*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>-0.24276364984954329</v>
       </c>
       <c r="Y3" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!Y3*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!Y3*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>-0.32838709114836995</v>
       </c>
     </row>
@@ -9063,99 +9008,99 @@
         <v>8</v>
       </c>
       <c r="B4" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!B4*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!B4*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>-1.4776057253775361E-2</v>
       </c>
       <c r="C4" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!C4*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!C4*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>-5.1478844715398465E-2</v>
       </c>
       <c r="D4" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!D4*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!D4*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>-0.17784067790734007</v>
       </c>
       <c r="E4" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!E4*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!E4*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>1.1225847855110417E-2</v>
       </c>
       <c r="F4" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!F4*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!F4*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>9.1413804500032197E-3</v>
       </c>
       <c r="G4" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!G4*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!G4*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>3.3494720772209829E-2</v>
       </c>
       <c r="H4" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!H4*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!H4*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>-3.4230818562037017E-2</v>
       </c>
       <c r="I4" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!I4*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!I4*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>-0.11807167550000819</v>
       </c>
       <c r="J4" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!J4*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!J4*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>-0.13796225067252407</v>
       </c>
       <c r="K4" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!K4*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!K4*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>-9.1866888382952316E-2</v>
       </c>
       <c r="L4" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!L4*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!L4*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>-9.6955116543645178E-2</v>
       </c>
       <c r="M4" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!M4*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!M4*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>-0.10896451016988311</v>
       </c>
       <c r="N4" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!N4*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!N4*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>-8.4574211066165542E-2</v>
       </c>
       <c r="O4" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!O4*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!O4*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>-9.9934968468366567E-2</v>
       </c>
       <c r="P4" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!P4*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!P4*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>-0.1731564749529568</v>
       </c>
       <c r="Q4" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!Q4*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!Q4*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>-4.9552754888628675E-2</v>
       </c>
       <c r="R4" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!R4*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!R4*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>-4.93934095039094E-2</v>
       </c>
       <c r="S4" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!S4*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!S4*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>-5.4048027219183906E-2</v>
       </c>
       <c r="T4" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!T4*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!T4*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>-4.9252628405242263E-2</v>
       </c>
       <c r="U4" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!U4*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!U4*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>-3.1743305333633447E-2</v>
       </c>
       <c r="V4" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!V4*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!V4*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>-5.1284750142207555E-2</v>
       </c>
       <c r="W4" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!W4*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!W4*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>-4.4435085810831366E-2</v>
       </c>
       <c r="X4" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!X4*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!X4*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>-8.8811817681843947E-3</v>
       </c>
       <c r="Y4" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!Y4*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!Y4*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>2.184819897134041E-2</v>
       </c>
     </row>
@@ -9164,99 +9109,99 @@
         <v>9</v>
       </c>
       <c r="B5" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!B5*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!B5*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.39677559483325303</v>
       </c>
       <c r="C5" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!C5*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!C5*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.36494553808306979</v>
       </c>
       <c r="D5" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!D5*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!D5*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.35119052042103815</v>
       </c>
       <c r="E5" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!E5*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!E5*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.35033781276705239</v>
       </c>
       <c r="F5" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!F5*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!F5*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.34585998333285795</v>
       </c>
       <c r="G5" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!G5*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!G5*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.32807597998537191</v>
       </c>
       <c r="H5" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!H5*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!H5*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.39723494476084165</v>
       </c>
       <c r="I5" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!I5*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!I5*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.51375343919883953</v>
       </c>
       <c r="J5" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!J5*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!J5*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.63099214134245685</v>
       </c>
       <c r="K5" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!K5*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!K5*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.70891635332544856</v>
       </c>
       <c r="L5" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!L5*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!L5*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.69924555808775213</v>
       </c>
       <c r="M5" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!M5*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!M5*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.73900946311093163</v>
       </c>
       <c r="N5" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!N5*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!N5*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.74051409949876412</v>
       </c>
       <c r="O5" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!O5*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!O5*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.71616663393108593</v>
       </c>
       <c r="P5" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!P5*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!P5*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.69517741251727694</v>
       </c>
       <c r="Q5" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!Q5*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!Q5*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.64518321674977674</v>
       </c>
       <c r="R5" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!R5*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!R5*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.62752577839764523</v>
       </c>
       <c r="S5" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!S5*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!S5*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.62752577839764523</v>
       </c>
       <c r="T5" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!T5*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!T5*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.62752577839764523</v>
       </c>
       <c r="U5" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!U5*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!U5*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.62752577839764523</v>
       </c>
       <c r="V5" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!V5*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!V5*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.62950345215021331</v>
       </c>
       <c r="W5" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!W5*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!W5*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.64054948867990724</v>
       </c>
       <c r="X5" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!X5*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!X5*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.57871322096989675</v>
       </c>
       <c r="Y5" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!Y5*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!Y5*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.49122140089519079</v>
       </c>
     </row>
@@ -9265,99 +9210,99 @@
         <v>2</v>
       </c>
       <c r="B6" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!B6*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!B6*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.43594597214070563</v>
       </c>
       <c r="C6" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!C6*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!C6*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.38660285538230993</v>
       </c>
       <c r="D6" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!D6*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!D6*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.36122179652383912</v>
       </c>
       <c r="E6" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!E6*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!E6*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.35026066918275756</v>
       </c>
       <c r="F6" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!F6*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!F6*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.35593828834290392</v>
       </c>
       <c r="G6" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!G6*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!G6*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.35632733647533288</v>
       </c>
       <c r="H6" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!H6*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!H6*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.53728561432864452</v>
       </c>
       <c r="I6" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!I6*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!I6*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.63800347024370185</v>
       </c>
       <c r="J6" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!J6*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!J6*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.71616403613500823</v>
       </c>
       <c r="K6" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!K6*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!K6*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.74650322497092558</v>
       </c>
       <c r="L6" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!L6*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!L6*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.65733163568559205</v>
       </c>
       <c r="M6" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!M6*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!M6*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.78142385177640128</v>
       </c>
       <c r="N6" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!N6*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!N6*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.79247728191465827</v>
       </c>
       <c r="O6" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!O6*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!O6*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.74947439056324849</v>
       </c>
       <c r="P6" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!P6*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!P6*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.67855630648691856</v>
       </c>
       <c r="Q6" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!Q6*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!Q6*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.64721569195988615</v>
       </c>
       <c r="R6" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!R6*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!R6*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.6436925039623711</v>
       </c>
       <c r="S6" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!S6*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!S6*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.63343069313795342</v>
       </c>
       <c r="T6" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!T6*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!T6*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.59324747866796468</v>
       </c>
       <c r="U6" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!U6*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!U6*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.63577520023914202</v>
       </c>
       <c r="V6" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!V6*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!V6*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.68702683041079837</v>
       </c>
       <c r="W6" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!W6*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!W6*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.65828805297752202</v>
       </c>
       <c r="X6" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!X6*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!X6*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.55061461658720656</v>
       </c>
       <c r="Y6" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!Y6*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!Y6*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.45569364691923975</v>
       </c>
     </row>
@@ -9366,99 +9311,99 @@
         <v>12</v>
       </c>
       <c r="B7" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!B7*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!B7*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>8.9034024946634371E-2</v>
       </c>
       <c r="C7" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!C7*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!C7*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>8.6009640808165033E-2</v>
       </c>
       <c r="D7" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!D7*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!D7*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>9.0446867137295703E-2</v>
       </c>
       <c r="E7" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!E7*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!E7*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>8.8988949402987808E-2</v>
       </c>
       <c r="F7" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!F7*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!F7*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>9.3816392332539481E-2</v>
       </c>
       <c r="G7" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!G7*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!G7*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>8.7753982924979212E-2</v>
       </c>
       <c r="H7" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!H7*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!H7*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>8.3787328138104092E-2</v>
       </c>
       <c r="I7" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!I7*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!I7*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.12108182115367772</v>
       </c>
       <c r="J7" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!J7*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!J7*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.15216149532270845</v>
       </c>
       <c r="K7" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!K7*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!K7*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.1596522418561204</v>
       </c>
       <c r="L7" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!L7*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!L7*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.15649558235593328</v>
       </c>
       <c r="M7" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!M7*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!M7*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.14310018657295914</v>
       </c>
       <c r="N7" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!N7*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!N7*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.1309714455951331</v>
       </c>
       <c r="O7" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!O7*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!O7*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.12613525999357686</v>
       </c>
       <c r="P7" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!P7*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!P7*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.12637603000086853</v>
       </c>
       <c r="Q7" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!Q7*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!Q7*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.13524997560267626</v>
       </c>
       <c r="R7" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!R7*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!R7*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.1380926344126773</v>
       </c>
       <c r="S7" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!S7*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!S7*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.13549263260087993</v>
       </c>
       <c r="T7" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!T7*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!T7*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.13113345669216731</v>
       </c>
       <c r="U7" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!U7*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!U7*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.15375782480513137</v>
       </c>
       <c r="V7" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!V7*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!V7*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.18552586785643457</v>
       </c>
       <c r="W7" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!W7*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!W7*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.20103261043898765</v>
       </c>
       <c r="X7" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!X7*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!X7*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.16780579915685917</v>
       </c>
       <c r="Y7" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!Y7*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!Y7*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.10768758380561518</v>
       </c>
     </row>
@@ -9467,99 +9412,99 @@
         <v>16</v>
       </c>
       <c r="B8" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!B8*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!B8*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.10296279704055383</v>
       </c>
       <c r="C8" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!C8*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!C8*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>8.9695035933672118E-2</v>
       </c>
       <c r="D8" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!D8*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!D8*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>8.9695035933672118E-2</v>
       </c>
       <c r="E8" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!E8*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!E8*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>8.9695035933672118E-2</v>
       </c>
       <c r="F8" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!F8*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!F8*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>8.9695035933672118E-2</v>
       </c>
       <c r="G8" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!G8*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!G8*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>8.9695035933672118E-2</v>
       </c>
       <c r="H8" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!H8*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!H8*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.10790111631463829</v>
       </c>
       <c r="I8" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!I8*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!I8*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.15662550843326001</v>
       </c>
       <c r="J8" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!J8*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!J8*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.17935354296474457</v>
       </c>
       <c r="K8" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!K8*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!K8*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.18028331471015649</v>
       </c>
       <c r="L8" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!L8*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!L8*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.17025574698826842</v>
       </c>
       <c r="M8" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!M8*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!M8*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.17050687885240459</v>
       </c>
       <c r="N8" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!N8*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!N8*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.17214396502320056</v>
       </c>
       <c r="O8" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!O8*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!O8*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.17214396502320056</v>
       </c>
       <c r="P8" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!P8*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!P8*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.16036783202937749</v>
       </c>
       <c r="Q8" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!Q8*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!Q8*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.13629928455643059</v>
       </c>
       <c r="R8" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!R8*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!R8*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.13629928455643059</v>
       </c>
       <c r="S8" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!S8*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!S8*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.13629928455643059</v>
       </c>
       <c r="T8" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!T8*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!T8*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.13898112466242771</v>
       </c>
       <c r="U8" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!U8*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!U8*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.1677289743158146</v>
       </c>
       <c r="V8" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!V8*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!V8*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.18223666827555923</v>
       </c>
       <c r="W8" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!W8*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!W8*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.18370379020357536</v>
       </c>
       <c r="X8" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!X8*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!X8*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.15624908654676994</v>
       </c>
       <c r="Y8" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!Y8*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!Y8*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.1297507029381913</v>
       </c>
     </row>
@@ -9568,99 +9513,99 @@
         <v>21</v>
       </c>
       <c r="B9" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!B9*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!B9*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.14411796155465878</v>
       </c>
       <c r="C9" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!C9*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!C9*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.13030568896101236</v>
       </c>
       <c r="D9" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!D9*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!D9*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.12671480313861844</v>
       </c>
       <c r="E9" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!E9*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!E9*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.12640678602329566</v>
       </c>
       <c r="F9" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!F9*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!F9*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.12576538199090806</v>
       </c>
       <c r="G9" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!G9*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!G9*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.12713812273053138</v>
       </c>
       <c r="H9" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!H9*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!H9*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.13023028264319736</v>
       </c>
       <c r="I9" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!I9*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!I9*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.14055952348642173</v>
       </c>
       <c r="J9" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!J9*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!J9*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.16184461118327578</v>
       </c>
       <c r="K9" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!K9*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!K9*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.17859286258410786</v>
       </c>
       <c r="L9" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!L9*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!L9*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.1924900520841209</v>
       </c>
       <c r="M9" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!M9*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!M9*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.19398691514988142</v>
       </c>
       <c r="N9" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!N9*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!N9*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.19519961359157753</v>
       </c>
       <c r="O9" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!O9*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!O9*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.18276367126505205</v>
       </c>
       <c r="P9" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!P9*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!P9*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.16826955592211965</v>
       </c>
       <c r="Q9" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!Q9*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!Q9*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.16656674612797978</v>
       </c>
       <c r="R9" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!R9*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!R9*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.1620803577043318</v>
       </c>
       <c r="S9" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!S9*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!S9*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.15865566291466915</v>
       </c>
       <c r="T9" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!T9*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!T9*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.16012715617868759</v>
       </c>
       <c r="U9" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!U9*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!U9*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.16380030785886618</v>
       </c>
       <c r="V9" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!V9*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!V9*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.18665131708643234</v>
       </c>
       <c r="W9" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!W9*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!W9*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.19589089515430064</v>
       </c>
       <c r="X9" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!X9*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!X9*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.18245958480196442</v>
       </c>
       <c r="Y9" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!Y9*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!Y9*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.14989984371572856</v>
       </c>
     </row>
@@ -9669,99 +9614,99 @@
         <v>23</v>
       </c>
       <c r="B10" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!B10*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!B10*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.11529437217647365</v>
       </c>
       <c r="C10" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!C10*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!C10*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.1042445500883243</v>
       </c>
       <c r="D10" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!D10*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!D10*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.10137184065863374</v>
       </c>
       <c r="E10" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!E10*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!E10*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.10112542434233909</v>
       </c>
       <c r="F10" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!F10*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!F10*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.10061229555964593</v>
       </c>
       <c r="G10" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!G10*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!G10*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.10171049571474376</v>
       </c>
       <c r="H10" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!H10*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!H10*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.10418422889294941</v>
       </c>
       <c r="I10" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!I10*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!I10*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.11244762218494923</v>
       </c>
       <c r="J10" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!J10*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!J10*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.12947568462467823</v>
       </c>
       <c r="K10" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!K10*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!K10*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.14287428481921341</v>
       </c>
       <c r="L10" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!L10*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!L10*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.15399204012374587</v>
       </c>
       <c r="M10" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!M10*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!M10*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.1551895291871585</v>
       </c>
       <c r="N10" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!N10*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!N10*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.15615969179939249</v>
       </c>
       <c r="O10" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!O10*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!O10*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.14621093855559247</v>
       </c>
       <c r="P10" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!P10*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!P10*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.1346156448920508</v>
       </c>
       <c r="Q10" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!Q10*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!Q10*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.13325339412399231</v>
       </c>
       <c r="R10" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!R10*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!R10*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.12966428878750186</v>
       </c>
       <c r="S10" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!S10*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!S10*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.12692452925124975</v>
       </c>
       <c r="T10" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!T10*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!T10*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.12810172216455851</v>
       </c>
       <c r="U10" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!U10*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!U10*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.13104024705886838</v>
       </c>
       <c r="V10" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!V10*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!V10*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.14932105845415344</v>
       </c>
       <c r="W10" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!W10*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!W10*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.1567127113384329</v>
       </c>
       <c r="X10" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!X10*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!X10*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.14596766876770206</v>
       </c>
       <c r="Y10" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!Y10*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!Y10*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.11991987312032183</v>
       </c>
     </row>
@@ -9770,99 +9715,99 @@
         <v>24</v>
       </c>
       <c r="B11" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!B11*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!B11*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.11529437217647365</v>
       </c>
       <c r="C11" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!C11*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!C11*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.1042445500883243</v>
       </c>
       <c r="D11" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!D11*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!D11*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.10137184065863374</v>
       </c>
       <c r="E11" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!E11*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!E11*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.10112542434233909</v>
       </c>
       <c r="F11" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!F11*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!F11*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.10061229555964593</v>
       </c>
       <c r="G11" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!G11*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!G11*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.10171049571474376</v>
       </c>
       <c r="H11" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!H11*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!H11*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.10418422889294941</v>
       </c>
       <c r="I11" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!I11*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!I11*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.11244762218494923</v>
       </c>
       <c r="J11" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!J11*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!J11*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.12947568462467823</v>
       </c>
       <c r="K11" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!K11*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!K11*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.14287428481921341</v>
       </c>
       <c r="L11" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!L11*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!L11*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.15399204012374587</v>
       </c>
       <c r="M11" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!M11*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!M11*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.1551895291871585</v>
       </c>
       <c r="N11" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!N11*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!N11*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.15615969179939249</v>
       </c>
       <c r="O11" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!O11*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!O11*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.14621093855559247</v>
       </c>
       <c r="P11" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!P11*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!P11*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.1346156448920508</v>
       </c>
       <c r="Q11" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!Q11*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!Q11*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.13325339412399231</v>
       </c>
       <c r="R11" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!R11*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!R11*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.12966428878750186</v>
       </c>
       <c r="S11" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!S11*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!S11*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.12692452925124975</v>
       </c>
       <c r="T11" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!T11*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!T11*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.12810172216455851</v>
       </c>
       <c r="U11" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!U11*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!U11*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.13104024705886838</v>
       </c>
       <c r="V11" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!V11*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!V11*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.14932105845415344</v>
       </c>
       <c r="W11" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!W11*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!W11*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.1567127113384329</v>
       </c>
       <c r="X11" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!X11*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!X11*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.14596766876770206</v>
       </c>
       <c r="Y11" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!Y11*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!Y11*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.11991987312032183</v>
       </c>
     </row>
@@ -9871,99 +9816,99 @@
         <v>15</v>
       </c>
       <c r="B12" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!B12*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!B12*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.74922052815766182</v>
       </c>
       <c r="C12" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!C12*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!C12*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.66239999294443941</v>
       </c>
       <c r="D12" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!D12*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!D12*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.62794500526448405</v>
       </c>
       <c r="E12" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!E12*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!E12*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.59643869749986911</v>
       </c>
       <c r="F12" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!F12*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!F12*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.59439473904322382</v>
       </c>
       <c r="G12" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!G12*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!G12*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.59275242255037841</v>
       </c>
       <c r="H12" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!H12*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!H12*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.71784368340511895</v>
       </c>
       <c r="I12" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!I12*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!I12*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.87545379282524771</v>
       </c>
       <c r="J12" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!J12*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!J12*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.99274135607096714</v>
       </c>
       <c r="K12" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!K12*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!K12*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>1.0171323721540535</v>
       </c>
       <c r="L12" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!L12*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!L12*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>1.032910463257978</v>
       </c>
       <c r="M12" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!M12*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!M12*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>1.100290189319056</v>
       </c>
       <c r="N12" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!N12*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!N12*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>1.1065477761007272</v>
       </c>
       <c r="O12" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!O12*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!O12*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>1.0876476265042059</v>
       </c>
       <c r="P12" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!P12*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!P12*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>1.0551885442276625</v>
       </c>
       <c r="Q12" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!Q12*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!Q12*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>1.0059763908127635</v>
       </c>
       <c r="R12" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!R12*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!R12*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.99681616437867848</v>
       </c>
       <c r="S12" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!S12*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!S12*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.99238501346568675</v>
       </c>
       <c r="T12" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!T12*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!T12*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>1.0180964315662335</v>
       </c>
       <c r="U12" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!U12*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!U12*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>1.0643797605321286</v>
       </c>
       <c r="V12" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!V12*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!V12*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>1.1044571452970828</v>
       </c>
       <c r="W12" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!W12*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!W12*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>1.1279057610734924</v>
       </c>
       <c r="X12" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!X12*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!X12*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>1.0406342280863217</v>
       </c>
       <c r="Y12" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!Y12*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!Y12*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.90065583219988721</v>
       </c>
     </row>
@@ -9972,99 +9917,99 @@
         <v>17</v>
       </c>
       <c r="B13" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!B13*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!B13*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.69128246570038443</v>
       </c>
       <c r="C13" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!C13*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!C13*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.6211021217519842</v>
       </c>
       <c r="D13" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!D13*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!D13*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.58188059271297088</v>
       </c>
       <c r="E13" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!E13*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!E13*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.57706160458319067</v>
       </c>
       <c r="F13" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!F13*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!F13*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.58628231505726514</v>
       </c>
       <c r="G13" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!G13*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!G13*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.59249400589801404</v>
       </c>
       <c r="H13" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!H13*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!H13*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.6905911594408477</v>
       </c>
       <c r="I13" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!I13*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!I13*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.83883734233677154</v>
       </c>
       <c r="J13" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!J13*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!J13*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.94830354434933761</v>
       </c>
       <c r="K13" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!K13*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!K13*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>1.0086898659933961</v>
       </c>
       <c r="L13" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!L13*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!L13*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>1.0445214432570153</v>
       </c>
       <c r="M13" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!M13*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!M13*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>1.1300367009357635</v>
       </c>
       <c r="N13" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!N13*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!N13*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>1.1405149253068629</v>
       </c>
       <c r="O13" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!O13*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!O13*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>1.1400125450405016</v>
       </c>
       <c r="P13" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!P13*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!P13*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>1.0761714949661505</v>
       </c>
       <c r="Q13" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!Q13*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!Q13*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>1.0174426860730388</v>
       </c>
       <c r="R13" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!R13*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!R13*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.95529596552446672</v>
       </c>
       <c r="S13" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!S13*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!S13*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.93863169100753452</v>
       </c>
       <c r="T13" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!T13*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!T13*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.90550987745653333</v>
       </c>
       <c r="U13" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!U13*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!U13*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.90630808927604556</v>
       </c>
       <c r="V13" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!V13*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!V13*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.91646232155231799</v>
       </c>
       <c r="W13" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!W13*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!W13*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.94297038939891864</v>
       </c>
       <c r="X13" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!X13*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!X13*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.89507902620451829</v>
       </c>
       <c r="Y13" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!Y13*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!Y13*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.77003278378204287</v>
       </c>
     </row>
@@ -10073,99 +10018,99 @@
         <v>19</v>
       </c>
       <c r="B14" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!B14*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!B14*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.71534751471533387</v>
       </c>
       <c r="C14" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!C14*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!C14*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.82174681007888684</v>
       </c>
       <c r="D14" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!D14*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!D14*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.53894262928444248</v>
       </c>
       <c r="E14" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!E14*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!E14*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.7324582165521526</v>
       </c>
       <c r="F14" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!F14*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!F14*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.67111525380129111</v>
       </c>
       <c r="G14" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!G14*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!G14*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.65514580792693167</v>
       </c>
       <c r="H14" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!H14*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!H14*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.7996547995333082</v>
       </c>
       <c r="I14" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!I14*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!I14*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.77900612942782665</v>
       </c>
       <c r="J14" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!J14*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!J14*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.85420760724042255</v>
       </c>
       <c r="K14" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!K14*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!K14*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.87000004024705369</v>
       </c>
       <c r="L14" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!L14*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!L14*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.78666614020370873</v>
       </c>
       <c r="M14" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!M14*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!M14*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.80838711739880864</v>
       </c>
       <c r="N14" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!N14*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!N14*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.84731212800454347</v>
       </c>
       <c r="O14" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!O14*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!O14*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.83118248316184551</v>
       </c>
       <c r="P14" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!P14*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!P14*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.85172999820603679</v>
       </c>
       <c r="Q14" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!Q14*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!Q14*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.88702001293678689</v>
       </c>
       <c r="R14" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!R14*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!R14*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.88731372519462315</v>
       </c>
       <c r="S14" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!S14*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!S14*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.8792444781847677</v>
       </c>
       <c r="T14" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!T14*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!T14*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.81937525687973489</v>
       </c>
       <c r="U14" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!U14*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!U14*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.88146203517466515</v>
       </c>
       <c r="V14" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!V14*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!V14*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.88952871448768456</v>
       </c>
       <c r="W14" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!W14*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!W14*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.82789615612909884</v>
       </c>
       <c r="X14" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!X14*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!X14*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.73815879911826887</v>
       </c>
       <c r="Y14" s="1">
-        <f>'[2]DownFlex, 2020, Summer'!Y14*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]DownFlex, 2020, Summer'!Y14*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.81933999523238166</v>
       </c>
     </row>
@@ -10266,99 +10211,99 @@
         <v>6</v>
       </c>
       <c r="B2" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!B2*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!B2*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.22053305699348091</v>
       </c>
       <c r="C2" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!C2*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!C2*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.20895202882687894</v>
       </c>
       <c r="D2" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!D2*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!D2*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.17440215290207697</v>
       </c>
       <c r="E2" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!E2*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!E2*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.19760101443348246</v>
       </c>
       <c r="F2" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!F2*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!F2*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.19378603204005987</v>
       </c>
       <c r="G2" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!G2*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!G2*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.19461998400768843</v>
       </c>
       <c r="H2" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!H2*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!H2*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.21472295872290487</v>
       </c>
       <c r="I2" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!I2*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!I2*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.23206885757667786</v>
       </c>
       <c r="J2" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!J2*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!J2*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.24194813096614481</v>
       </c>
       <c r="K2" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!K2*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!K2*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.23511250600150901</v>
       </c>
       <c r="L2" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!L2*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!L2*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.23205187851734688</v>
       </c>
       <c r="M2" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!M2*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!M2*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.25517883450426126</v>
       </c>
       <c r="N2" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!N2*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!N2*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.24876335944987152</v>
       </c>
       <c r="O2" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!O2*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!O2*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.24880515649151638</v>
       </c>
       <c r="P2" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!P2*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!P2*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.24181086916341171</v>
       </c>
       <c r="Q2" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!Q2*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!Q2*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.23849047673521911</v>
       </c>
       <c r="R2" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!R2*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!R2*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.23925405436079802</v>
       </c>
       <c r="S2" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!S2*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!S2*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.21470869322596517</v>
       </c>
       <c r="T2" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!T2*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!T2*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.25898681998168865</v>
       </c>
       <c r="U2" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!U2*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!U2*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.26271418734186192</v>
       </c>
       <c r="V2" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!V2*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!V2*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.24583211857201465</v>
       </c>
       <c r="W2" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!W2*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!W2*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.25129126045799549</v>
       </c>
       <c r="X2" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!X2*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!X2*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.23267582730496686</v>
       </c>
       <c r="Y2" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!Y2*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!Y2*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.20520322308897415</v>
       </c>
     </row>
@@ -10367,99 +10312,99 @@
         <v>5</v>
       </c>
       <c r="B3" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!B3*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!B3*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>-0.18567361114120282</v>
       </c>
       <c r="C3" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!C3*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!C3*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>-0.30229613473217043</v>
       </c>
       <c r="D3" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!D3*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!D3*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>-0.15971322523480919</v>
       </c>
       <c r="E3" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!E3*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!E3*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>-0.15257967411852125</v>
       </c>
       <c r="F3" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!F3*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!F3*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>-0.24014425254956201</v>
       </c>
       <c r="G3" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!G3*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!G3*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>-0.3998585968587362</v>
       </c>
       <c r="H3" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!H3*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!H3*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>-0.32375621941934518</v>
       </c>
       <c r="I3" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!I3*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!I3*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>-0.25929963599659867</v>
       </c>
       <c r="J3" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!J3*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!J3*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>-0.22361032781466453</v>
       </c>
       <c r="K3" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!K3*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!K3*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>-0.21742598097719276</v>
       </c>
       <c r="L3" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!L3*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!L3*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>-0.23246530703542415</v>
       </c>
       <c r="M3" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!M3*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!M3*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>-0.21099953359159809</v>
       </c>
       <c r="N3" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!N3*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!N3*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>-0.21979442392138551</v>
       </c>
       <c r="O3" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!O3*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!O3*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>-0.24217373095569969</v>
       </c>
       <c r="P3" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!P3*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!P3*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>-0.2785412599448544</v>
       </c>
       <c r="Q3" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!Q3*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!Q3*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>-0.30806516991953009</v>
       </c>
       <c r="R3" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!R3*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!R3*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>-0.3229430328412784</v>
       </c>
       <c r="S3" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!S3*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!S3*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>-0.28556247606105795</v>
       </c>
       <c r="T3" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!T3*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!T3*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>-0.25177830168780202</v>
       </c>
       <c r="U3" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!U3*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!U3*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>-9.6205694051120297E-2</v>
       </c>
       <c r="V3" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!V3*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!V3*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>-4.3151068373966497E-2</v>
       </c>
       <c r="W3" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!W3*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!W3*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>-0.13335711225146626</v>
       </c>
       <c r="X3" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!X3*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!X3*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>-0.24276364984954329</v>
       </c>
       <c r="Y3" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!Y3*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!Y3*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>-0.32838709114836995</v>
       </c>
     </row>
@@ -10468,99 +10413,99 @@
         <v>8</v>
       </c>
       <c r="B4" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!B4*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!B4*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>-1.4776057253775361E-2</v>
       </c>
       <c r="C4" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!C4*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!C4*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>-5.1478844715398465E-2</v>
       </c>
       <c r="D4" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!D4*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!D4*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>-0.17784067790734007</v>
       </c>
       <c r="E4" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!E4*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!E4*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>1.1225847855110417E-2</v>
       </c>
       <c r="F4" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!F4*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!F4*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>9.1413804500032197E-3</v>
       </c>
       <c r="G4" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!G4*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!G4*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>3.3494720772209829E-2</v>
       </c>
       <c r="H4" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!H4*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!H4*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>-3.4230818562037017E-2</v>
       </c>
       <c r="I4" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!I4*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!I4*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>-0.11807167550000819</v>
       </c>
       <c r="J4" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!J4*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!J4*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>-0.13796225067252407</v>
       </c>
       <c r="K4" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!K4*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!K4*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>-9.1866888382952316E-2</v>
       </c>
       <c r="L4" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!L4*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!L4*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>-9.6955116543645178E-2</v>
       </c>
       <c r="M4" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!M4*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!M4*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>-0.10896451016988311</v>
       </c>
       <c r="N4" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!N4*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!N4*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>-8.4574211066165542E-2</v>
       </c>
       <c r="O4" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!O4*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!O4*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>-9.9934968468366567E-2</v>
       </c>
       <c r="P4" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!P4*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!P4*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>-0.1731564749529568</v>
       </c>
       <c r="Q4" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!Q4*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!Q4*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>-4.9552754888628675E-2</v>
       </c>
       <c r="R4" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!R4*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!R4*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>-4.93934095039094E-2</v>
       </c>
       <c r="S4" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!S4*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!S4*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>-5.4048027219183906E-2</v>
       </c>
       <c r="T4" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!T4*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!T4*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>-4.9252628405242263E-2</v>
       </c>
       <c r="U4" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!U4*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!U4*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>-3.1743305333633447E-2</v>
       </c>
       <c r="V4" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!V4*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!V4*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>-5.1284750142207555E-2</v>
       </c>
       <c r="W4" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!W4*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!W4*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>-4.4435085810831366E-2</v>
       </c>
       <c r="X4" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!X4*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!X4*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>-8.8811817681843947E-3</v>
       </c>
       <c r="Y4" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!Y4*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!Y4*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>2.184819897134041E-2</v>
       </c>
     </row>
@@ -10569,99 +10514,99 @@
         <v>9</v>
       </c>
       <c r="B5" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!B5*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!B5*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.39677559483325303</v>
       </c>
       <c r="C5" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!C5*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!C5*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.36494553808306979</v>
       </c>
       <c r="D5" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!D5*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!D5*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.35119052042103815</v>
       </c>
       <c r="E5" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!E5*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!E5*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.35033781276705239</v>
       </c>
       <c r="F5" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!F5*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!F5*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.34585998333285795</v>
       </c>
       <c r="G5" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!G5*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!G5*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.32807597998537191</v>
       </c>
       <c r="H5" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!H5*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!H5*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.39723494476084165</v>
       </c>
       <c r="I5" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!I5*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!I5*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.51375343919883953</v>
       </c>
       <c r="J5" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!J5*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!J5*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.63099214134245685</v>
       </c>
       <c r="K5" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!K5*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!K5*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.70891635332544856</v>
       </c>
       <c r="L5" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!L5*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!L5*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.69924555808775213</v>
       </c>
       <c r="M5" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!M5*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!M5*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.73900946311093163</v>
       </c>
       <c r="N5" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!N5*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!N5*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.74051409949876412</v>
       </c>
       <c r="O5" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!O5*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!O5*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.71616663393108593</v>
       </c>
       <c r="P5" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!P5*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!P5*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.69517741251727694</v>
       </c>
       <c r="Q5" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!Q5*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!Q5*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.64518321674977674</v>
       </c>
       <c r="R5" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!R5*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!R5*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.62752577839764523</v>
       </c>
       <c r="S5" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!S5*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!S5*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.62752577839764523</v>
       </c>
       <c r="T5" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!T5*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!T5*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.62752577839764523</v>
       </c>
       <c r="U5" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!U5*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!U5*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.62752577839764523</v>
       </c>
       <c r="V5" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!V5*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!V5*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.62950345215021331</v>
       </c>
       <c r="W5" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!W5*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!W5*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.64054948867990724</v>
       </c>
       <c r="X5" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!X5*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!X5*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.57871322096989675</v>
       </c>
       <c r="Y5" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!Y5*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!Y5*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.49122140089519079</v>
       </c>
     </row>
@@ -10670,99 +10615,99 @@
         <v>2</v>
       </c>
       <c r="B6" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!B6*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!B6*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.43594597214070563</v>
       </c>
       <c r="C6" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!C6*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!C6*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.38660285538230993</v>
       </c>
       <c r="D6" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!D6*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!D6*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.36122179652383912</v>
       </c>
       <c r="E6" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!E6*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!E6*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.35026066918275756</v>
       </c>
       <c r="F6" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!F6*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!F6*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.35593828834290392</v>
       </c>
       <c r="G6" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!G6*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!G6*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.35632733647533288</v>
       </c>
       <c r="H6" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!H6*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!H6*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.53728561432864452</v>
       </c>
       <c r="I6" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!I6*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!I6*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.63800347024370185</v>
       </c>
       <c r="J6" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!J6*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!J6*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.71616403613500823</v>
       </c>
       <c r="K6" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!K6*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!K6*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.74650322497092558</v>
       </c>
       <c r="L6" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!L6*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!L6*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.65733163568559205</v>
       </c>
       <c r="M6" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!M6*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!M6*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.78142385177640128</v>
       </c>
       <c r="N6" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!N6*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!N6*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.79247728191465827</v>
       </c>
       <c r="O6" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!O6*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!O6*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.74947439056324849</v>
       </c>
       <c r="P6" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!P6*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!P6*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.67855630648691856</v>
       </c>
       <c r="Q6" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!Q6*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!Q6*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.64721569195988615</v>
       </c>
       <c r="R6" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!R6*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!R6*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.6436925039623711</v>
       </c>
       <c r="S6" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!S6*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!S6*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.63343069313795342</v>
       </c>
       <c r="T6" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!T6*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!T6*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.59324747866796468</v>
       </c>
       <c r="U6" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!U6*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!U6*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.63577520023914202</v>
       </c>
       <c r="V6" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!V6*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!V6*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.68702683041079837</v>
       </c>
       <c r="W6" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!W6*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!W6*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.65828805297752202</v>
       </c>
       <c r="X6" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!X6*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!X6*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.55061461658720656</v>
       </c>
       <c r="Y6" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!Y6*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!Y6*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.45569364691923975</v>
       </c>
     </row>
@@ -10771,99 +10716,99 @@
         <v>12</v>
       </c>
       <c r="B7" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!B7*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!B7*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>8.9034024946634371E-2</v>
       </c>
       <c r="C7" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!C7*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!C7*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>8.6009640808165033E-2</v>
       </c>
       <c r="D7" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!D7*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!D7*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>9.0446867137295703E-2</v>
       </c>
       <c r="E7" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!E7*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!E7*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>8.8988949402987808E-2</v>
       </c>
       <c r="F7" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!F7*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!F7*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>9.3816392332539481E-2</v>
       </c>
       <c r="G7" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!G7*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!G7*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>8.7753982924979212E-2</v>
       </c>
       <c r="H7" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!H7*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!H7*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>8.3787328138104092E-2</v>
       </c>
       <c r="I7" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!I7*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!I7*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.12108182115367772</v>
       </c>
       <c r="J7" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!J7*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!J7*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.15216149532270845</v>
       </c>
       <c r="K7" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!K7*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!K7*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.1596522418561204</v>
       </c>
       <c r="L7" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!L7*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!L7*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.15649558235593328</v>
       </c>
       <c r="M7" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!M7*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!M7*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.14310018657295914</v>
       </c>
       <c r="N7" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!N7*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!N7*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.1309714455951331</v>
       </c>
       <c r="O7" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!O7*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!O7*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.12613525999357686</v>
       </c>
       <c r="P7" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!P7*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!P7*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.12637603000086853</v>
       </c>
       <c r="Q7" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!Q7*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!Q7*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.13524997560267626</v>
       </c>
       <c r="R7" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!R7*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!R7*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.1380926344126773</v>
       </c>
       <c r="S7" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!S7*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!S7*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.13549263260087993</v>
       </c>
       <c r="T7" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!T7*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!T7*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.13113345669216731</v>
       </c>
       <c r="U7" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!U7*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!U7*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.15375782480513137</v>
       </c>
       <c r="V7" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!V7*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!V7*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.18552586785643457</v>
       </c>
       <c r="W7" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!W7*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!W7*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.20103261043898765</v>
       </c>
       <c r="X7" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!X7*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!X7*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.16780579915685917</v>
       </c>
       <c r="Y7" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!Y7*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!Y7*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.10768758380561518</v>
       </c>
     </row>
@@ -10872,99 +10817,99 @@
         <v>16</v>
       </c>
       <c r="B8" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!B8*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!B8*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.10296279704055383</v>
       </c>
       <c r="C8" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!C8*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!C8*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>8.9695035933672118E-2</v>
       </c>
       <c r="D8" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!D8*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!D8*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>8.9695035933672118E-2</v>
       </c>
       <c r="E8" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!E8*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!E8*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>8.9695035933672118E-2</v>
       </c>
       <c r="F8" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!F8*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!F8*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>8.9695035933672118E-2</v>
       </c>
       <c r="G8" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!G8*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!G8*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>8.9695035933672118E-2</v>
       </c>
       <c r="H8" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!H8*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!H8*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.10790111631463829</v>
       </c>
       <c r="I8" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!I8*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!I8*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.15662550843326001</v>
       </c>
       <c r="J8" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!J8*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!J8*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.17935354296474457</v>
       </c>
       <c r="K8" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!K8*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!K8*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.18028331471015649</v>
       </c>
       <c r="L8" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!L8*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!L8*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.17025574698826842</v>
       </c>
       <c r="M8" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!M8*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!M8*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.17050687885240459</v>
       </c>
       <c r="N8" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!N8*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!N8*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.17214396502320056</v>
       </c>
       <c r="O8" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!O8*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!O8*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.17214396502320056</v>
       </c>
       <c r="P8" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!P8*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!P8*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.16036783202937749</v>
       </c>
       <c r="Q8" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!Q8*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!Q8*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.13629928455643059</v>
       </c>
       <c r="R8" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!R8*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!R8*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.13629928455643059</v>
       </c>
       <c r="S8" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!S8*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!S8*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.13629928455643059</v>
       </c>
       <c r="T8" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!T8*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!T8*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.13898112466242771</v>
       </c>
       <c r="U8" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!U8*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!U8*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.1677289743158146</v>
       </c>
       <c r="V8" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!V8*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!V8*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.18223666827555923</v>
       </c>
       <c r="W8" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!W8*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!W8*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.18370379020357536</v>
       </c>
       <c r="X8" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!X8*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!X8*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.15624908654676994</v>
       </c>
       <c r="Y8" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!Y8*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!Y8*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.1297507029381913</v>
       </c>
     </row>
@@ -10973,99 +10918,99 @@
         <v>21</v>
       </c>
       <c r="B9" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!B9*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!B9*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.14411796155465878</v>
       </c>
       <c r="C9" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!C9*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!C9*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.13030568896101236</v>
       </c>
       <c r="D9" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!D9*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!D9*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.12671480313861844</v>
       </c>
       <c r="E9" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!E9*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!E9*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.12640678602329566</v>
       </c>
       <c r="F9" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!F9*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!F9*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.12576538199090806</v>
       </c>
       <c r="G9" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!G9*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!G9*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.12713812273053138</v>
       </c>
       <c r="H9" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!H9*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!H9*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.13023028264319736</v>
       </c>
       <c r="I9" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!I9*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!I9*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.14055952348642173</v>
       </c>
       <c r="J9" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!J9*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!J9*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.16184461118327578</v>
       </c>
       <c r="K9" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!K9*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!K9*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.17859286258410786</v>
       </c>
       <c r="L9" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!L9*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!L9*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.1924900520841209</v>
       </c>
       <c r="M9" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!M9*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!M9*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.19398691514988142</v>
       </c>
       <c r="N9" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!N9*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!N9*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.19519961359157753</v>
       </c>
       <c r="O9" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!O9*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!O9*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.18276367126505205</v>
       </c>
       <c r="P9" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!P9*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!P9*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.16826955592211965</v>
       </c>
       <c r="Q9" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!Q9*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!Q9*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.16656674612797978</v>
       </c>
       <c r="R9" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!R9*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!R9*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.1620803577043318</v>
       </c>
       <c r="S9" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!S9*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!S9*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.15865566291466915</v>
       </c>
       <c r="T9" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!T9*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!T9*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.16012715617868759</v>
       </c>
       <c r="U9" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!U9*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!U9*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.16380030785886618</v>
       </c>
       <c r="V9" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!V9*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!V9*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.18665131708643234</v>
       </c>
       <c r="W9" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!W9*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!W9*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.19589089515430064</v>
       </c>
       <c r="X9" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!X9*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!X9*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.18245958480196442</v>
       </c>
       <c r="Y9" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!Y9*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!Y9*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.14989984371572856</v>
       </c>
     </row>
@@ -11074,99 +11019,99 @@
         <v>23</v>
       </c>
       <c r="B10" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!B10*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!B10*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.11529437217647365</v>
       </c>
       <c r="C10" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!C10*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!C10*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.1042445500883243</v>
       </c>
       <c r="D10" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!D10*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!D10*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.10137184065863374</v>
       </c>
       <c r="E10" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!E10*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!E10*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.10112542434233909</v>
       </c>
       <c r="F10" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!F10*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!F10*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.10061229555964593</v>
       </c>
       <c r="G10" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!G10*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!G10*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.10171049571474376</v>
       </c>
       <c r="H10" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!H10*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!H10*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.10418422889294941</v>
       </c>
       <c r="I10" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!I10*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!I10*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.11244762218494923</v>
       </c>
       <c r="J10" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!J10*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!J10*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.12947568462467823</v>
       </c>
       <c r="K10" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!K10*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!K10*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.14287428481921341</v>
       </c>
       <c r="L10" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!L10*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!L10*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.15399204012374587</v>
       </c>
       <c r="M10" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!M10*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!M10*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.1551895291871585</v>
       </c>
       <c r="N10" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!N10*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!N10*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.15615969179939249</v>
       </c>
       <c r="O10" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!O10*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!O10*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.14621093855559247</v>
       </c>
       <c r="P10" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!P10*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!P10*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.1346156448920508</v>
       </c>
       <c r="Q10" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!Q10*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!Q10*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.13325339412399231</v>
       </c>
       <c r="R10" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!R10*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!R10*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.12966428878750186</v>
       </c>
       <c r="S10" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!S10*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!S10*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.12692452925124975</v>
       </c>
       <c r="T10" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!T10*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!T10*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.12810172216455851</v>
       </c>
       <c r="U10" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!U10*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!U10*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.13104024705886838</v>
       </c>
       <c r="V10" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!V10*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!V10*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.14932105845415344</v>
       </c>
       <c r="W10" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!W10*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!W10*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.1567127113384329</v>
       </c>
       <c r="X10" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!X10*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!X10*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.14596766876770206</v>
       </c>
       <c r="Y10" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!Y10*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!Y10*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.11991987312032183</v>
       </c>
     </row>
@@ -11175,99 +11120,99 @@
         <v>24</v>
       </c>
       <c r="B11" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!B11*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!B11*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.11529437217647365</v>
       </c>
       <c r="C11" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!C11*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!C11*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.1042445500883243</v>
       </c>
       <c r="D11" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!D11*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!D11*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.10137184065863374</v>
       </c>
       <c r="E11" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!E11*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!E11*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.10112542434233909</v>
       </c>
       <c r="F11" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!F11*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!F11*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.10061229555964593</v>
       </c>
       <c r="G11" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!G11*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!G11*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.10171049571474376</v>
       </c>
       <c r="H11" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!H11*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!H11*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.10418422889294941</v>
       </c>
       <c r="I11" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!I11*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!I11*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.11244762218494923</v>
       </c>
       <c r="J11" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!J11*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!J11*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.12947568462467823</v>
       </c>
       <c r="K11" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!K11*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!K11*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.14287428481921341</v>
       </c>
       <c r="L11" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!L11*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!L11*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.15399204012374587</v>
       </c>
       <c r="M11" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!M11*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!M11*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.1551895291871585</v>
       </c>
       <c r="N11" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!N11*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!N11*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.15615969179939249</v>
       </c>
       <c r="O11" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!O11*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!O11*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.14621093855559247</v>
       </c>
       <c r="P11" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!P11*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!P11*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.1346156448920508</v>
       </c>
       <c r="Q11" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!Q11*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!Q11*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.13325339412399231</v>
       </c>
       <c r="R11" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!R11*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!R11*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.12966428878750186</v>
       </c>
       <c r="S11" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!S11*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!S11*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.12692452925124975</v>
       </c>
       <c r="T11" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!T11*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!T11*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.12810172216455851</v>
       </c>
       <c r="U11" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!U11*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!U11*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.13104024705886838</v>
       </c>
       <c r="V11" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!V11*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!V11*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.14932105845415344</v>
       </c>
       <c r="W11" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!W11*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!W11*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.1567127113384329</v>
       </c>
       <c r="X11" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!X11*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!X11*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.14596766876770206</v>
       </c>
       <c r="Y11" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!Y11*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!Y11*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.11991987312032183</v>
       </c>
     </row>
@@ -11276,99 +11221,99 @@
         <v>15</v>
       </c>
       <c r="B12" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!B12*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!B12*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.74922052815766182</v>
       </c>
       <c r="C12" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!C12*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!C12*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.66239999294443941</v>
       </c>
       <c r="D12" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!D12*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!D12*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.62794500526448405</v>
       </c>
       <c r="E12" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!E12*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!E12*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.59643869749986911</v>
       </c>
       <c r="F12" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!F12*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!F12*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.59439473904322382</v>
       </c>
       <c r="G12" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!G12*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!G12*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.59275242255037841</v>
       </c>
       <c r="H12" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!H12*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!H12*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.71784368340511895</v>
       </c>
       <c r="I12" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!I12*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!I12*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.87545379282524771</v>
       </c>
       <c r="J12" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!J12*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!J12*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.99274135607096714</v>
       </c>
       <c r="K12" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!K12*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!K12*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>1.0171323721540535</v>
       </c>
       <c r="L12" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!L12*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!L12*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>1.032910463257978</v>
       </c>
       <c r="M12" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!M12*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!M12*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>1.100290189319056</v>
       </c>
       <c r="N12" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!N12*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!N12*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>1.1065477761007272</v>
       </c>
       <c r="O12" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!O12*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!O12*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>1.0876476265042059</v>
       </c>
       <c r="P12" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!P12*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!P12*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>1.0551885442276625</v>
       </c>
       <c r="Q12" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!Q12*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!Q12*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>1.0059763908127635</v>
       </c>
       <c r="R12" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!R12*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!R12*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.99681616437867848</v>
       </c>
       <c r="S12" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!S12*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!S12*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.99238501346568675</v>
       </c>
       <c r="T12" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!T12*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!T12*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>1.0180964315662335</v>
       </c>
       <c r="U12" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!U12*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!U12*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>1.0643797605321286</v>
       </c>
       <c r="V12" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!V12*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!V12*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>1.1044571452970828</v>
       </c>
       <c r="W12" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!W12*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!W12*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>1.1279057610734924</v>
       </c>
       <c r="X12" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!X12*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!X12*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>1.0406342280863217</v>
       </c>
       <c r="Y12" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!Y12*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!Y12*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.90065583219988721</v>
       </c>
     </row>
@@ -11377,99 +11322,99 @@
         <v>17</v>
       </c>
       <c r="B13" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!B13*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!B13*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.69128246570038443</v>
       </c>
       <c r="C13" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!C13*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!C13*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.6211021217519842</v>
       </c>
       <c r="D13" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!D13*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!D13*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.58188059271297088</v>
       </c>
       <c r="E13" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!E13*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!E13*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.57706160458319067</v>
       </c>
       <c r="F13" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!F13*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!F13*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.58628231505726514</v>
       </c>
       <c r="G13" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!G13*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!G13*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.59249400589801404</v>
       </c>
       <c r="H13" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!H13*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!H13*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.6905911594408477</v>
       </c>
       <c r="I13" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!I13*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!I13*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.83883734233677154</v>
       </c>
       <c r="J13" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!J13*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!J13*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.94830354434933761</v>
       </c>
       <c r="K13" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!K13*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!K13*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>1.0086898659933961</v>
       </c>
       <c r="L13" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!L13*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!L13*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>1.0445214432570153</v>
       </c>
       <c r="M13" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!M13*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!M13*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>1.1300367009357635</v>
       </c>
       <c r="N13" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!N13*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!N13*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>1.1405149253068629</v>
       </c>
       <c r="O13" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!O13*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!O13*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>1.1400125450405016</v>
       </c>
       <c r="P13" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!P13*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!P13*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>1.0761714949661505</v>
       </c>
       <c r="Q13" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!Q13*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!Q13*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>1.0174426860730388</v>
       </c>
       <c r="R13" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!R13*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!R13*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.95529596552446672</v>
       </c>
       <c r="S13" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!S13*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!S13*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.93863169100753452</v>
       </c>
       <c r="T13" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!T13*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!T13*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.90550987745653333</v>
       </c>
       <c r="U13" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!U13*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!U13*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.90630808927604556</v>
       </c>
       <c r="V13" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!V13*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!V13*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.91646232155231799</v>
       </c>
       <c r="W13" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!W13*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!W13*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.94297038939891864</v>
       </c>
       <c r="X13" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!X13*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!X13*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.89507902620451829</v>
       </c>
       <c r="Y13" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!Y13*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!Y13*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.77003278378204287</v>
       </c>
     </row>
@@ -11478,99 +11423,99 @@
         <v>19</v>
       </c>
       <c r="B14" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!B14*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!B14*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.71534751471533387</v>
       </c>
       <c r="C14" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!C14*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!C14*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.82174681007888684</v>
       </c>
       <c r="D14" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!D14*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!D14*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.53894262928444248</v>
       </c>
       <c r="E14" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!E14*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!E14*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.7324582165521526</v>
       </c>
       <c r="F14" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!F14*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!F14*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.67111525380129111</v>
       </c>
       <c r="G14" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!G14*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!G14*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.65514580792693167</v>
       </c>
       <c r="H14" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!H14*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!H14*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.7996547995333082</v>
       </c>
       <c r="I14" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!I14*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!I14*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.77900612942782665</v>
       </c>
       <c r="J14" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!J14*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!J14*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.85420760724042255</v>
       </c>
       <c r="K14" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!K14*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!K14*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.87000004024705369</v>
       </c>
       <c r="L14" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!L14*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!L14*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.78666614020370873</v>
       </c>
       <c r="M14" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!M14*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!M14*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.80838711739880864</v>
       </c>
       <c r="N14" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!N14*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!N14*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.84731212800454347</v>
       </c>
       <c r="O14" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!O14*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!O14*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.83118248316184551</v>
       </c>
       <c r="P14" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!P14*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!P14*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.85172999820603679</v>
       </c>
       <c r="Q14" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!Q14*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!Q14*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.88702001293678689</v>
       </c>
       <c r="R14" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!R14*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!R14*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.88731372519462315</v>
       </c>
       <c r="S14" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!S14*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!S14*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.8792444781847677</v>
       </c>
       <c r="T14" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!T14*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!T14*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.81937525687973489</v>
       </c>
       <c r="U14" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!U14*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!U14*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.88146203517466515</v>
       </c>
       <c r="V14" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!V14*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!V14*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.88952871448768456</v>
       </c>
       <c r="W14" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!W14*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!W14*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.82789615612909884</v>
       </c>
       <c r="X14" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!X14*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!X14*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.73815879911826887</v>
       </c>
       <c r="Y14" s="1">
-        <f>'[2]UpFlex, 2020, Summer'!Y14*(1+[2]Main!$B$4)^(Main!$B$5-2020)</f>
+        <f>'[1]UpFlex, 2020, Summer'!Y14*(1+[1]Main!$B$4)^(Main!$B$5-2020)</f>
         <v>0.81933999523238166</v>
       </c>
     </row>
@@ -11671,99 +11616,99 @@
         <v>6</v>
       </c>
       <c r="B2" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!B2*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!B2*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>24.060480878284579</v>
       </c>
       <c r="C2" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!C2*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!C2*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.92627892828526</v>
       </c>
       <c r="D2" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!D2*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!D2*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.45045049769821</v>
       </c>
       <c r="E2" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!E2*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!E2*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>21.801593546897681</v>
       </c>
       <c r="F2" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!F2*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!F2*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.017879197164518</v>
       </c>
       <c r="G2" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!G2*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!G2*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.949637778514077</v>
       </c>
       <c r="H2" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!H2*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!H2*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>24.902264629123124</v>
       </c>
       <c r="I2" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!I2*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!I2*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>25.832292925270547</v>
       </c>
       <c r="J2" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!J2*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!J2*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>26.956978306658126</v>
       </c>
       <c r="K2" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!K2*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!K2*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>25.55890786333326</v>
       </c>
       <c r="L2" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!L2*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!L2*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>24.978397178017058</v>
       </c>
       <c r="M2" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!M2*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!M2*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.685769285188531</v>
       </c>
       <c r="N2" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!N2*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!N2*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.057675756813619</v>
       </c>
       <c r="O2" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!O2*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!O2*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>18.851457277257953</v>
       </c>
       <c r="P2" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!P2*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!P2*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>19.612782766197238</v>
       </c>
       <c r="Q2" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!Q2*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!Q2*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>17.784736450141889</v>
       </c>
       <c r="R2" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!R2*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!R2*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>17.302852021347366</v>
       </c>
       <c r="S2" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!S2*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!S2*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>17.211146905634227</v>
       </c>
       <c r="T2" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!T2*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!T2*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>17.437814267113872</v>
       </c>
       <c r="U2" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!U2*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!U2*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>19.805709566235262</v>
       </c>
       <c r="V2" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!V2*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!V2*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>24.005111751816269</v>
       </c>
       <c r="W2" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!W2*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!W2*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>23.97310147557678</v>
       </c>
       <c r="X2" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!X2*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!X2*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.699611566805608</v>
       </c>
       <c r="Y2" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!Y2*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!Y2*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>21.593094180040445</v>
       </c>
     </row>
@@ -11772,99 +11717,99 @@
         <v>5</v>
       </c>
       <c r="B3" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!B3*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!B3*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>24.060480878284579</v>
       </c>
       <c r="C3" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!C3*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!C3*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.92627892828526</v>
       </c>
       <c r="D3" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!D3*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!D3*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.45045049769821</v>
       </c>
       <c r="E3" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!E3*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!E3*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>21.801593546897681</v>
       </c>
       <c r="F3" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!F3*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!F3*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.017879197164518</v>
       </c>
       <c r="G3" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!G3*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!G3*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.949637778514077</v>
       </c>
       <c r="H3" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!H3*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!H3*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>24.902264629123124</v>
       </c>
       <c r="I3" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!I3*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!I3*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>25.832292925270547</v>
       </c>
       <c r="J3" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!J3*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!J3*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>26.956978306658126</v>
       </c>
       <c r="K3" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!K3*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!K3*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>25.55890786333326</v>
       </c>
       <c r="L3" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!L3*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!L3*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>24.978397178017058</v>
       </c>
       <c r="M3" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!M3*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!M3*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.685769285188531</v>
       </c>
       <c r="N3" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!N3*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!N3*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.057675756813619</v>
       </c>
       <c r="O3" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!O3*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!O3*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>18.851457277257953</v>
       </c>
       <c r="P3" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!P3*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!P3*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>19.612782766197238</v>
       </c>
       <c r="Q3" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!Q3*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!Q3*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>17.784736450141889</v>
       </c>
       <c r="R3" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!R3*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!R3*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>17.302852021347366</v>
       </c>
       <c r="S3" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!S3*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!S3*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>17.211146905634227</v>
       </c>
       <c r="T3" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!T3*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!T3*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>17.437814267113872</v>
       </c>
       <c r="U3" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!U3*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!U3*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>19.805709566235262</v>
       </c>
       <c r="V3" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!V3*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!V3*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>24.005111751816269</v>
       </c>
       <c r="W3" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!W3*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!W3*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>23.97310147557678</v>
       </c>
       <c r="X3" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!X3*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!X3*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.699611566805608</v>
       </c>
       <c r="Y3" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!Y3*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!Y3*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>21.593094180040445</v>
       </c>
     </row>
@@ -11873,99 +11818,99 @@
         <v>8</v>
       </c>
       <c r="B4" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!B4*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!B4*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>24.060480878284579</v>
       </c>
       <c r="C4" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!C4*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!C4*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.92627892828526</v>
       </c>
       <c r="D4" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!D4*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!D4*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.45045049769821</v>
       </c>
       <c r="E4" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!E4*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!E4*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>21.801593546897681</v>
       </c>
       <c r="F4" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!F4*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!F4*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.017879197164518</v>
       </c>
       <c r="G4" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!G4*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!G4*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.949637778514077</v>
       </c>
       <c r="H4" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!H4*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!H4*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>24.902264629123124</v>
       </c>
       <c r="I4" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!I4*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!I4*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>25.832292925270547</v>
       </c>
       <c r="J4" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!J4*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!J4*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>26.956978306658126</v>
       </c>
       <c r="K4" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!K4*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!K4*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>25.55890786333326</v>
       </c>
       <c r="L4" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!L4*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!L4*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>24.978397178017058</v>
       </c>
       <c r="M4" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!M4*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!M4*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.685769285188531</v>
       </c>
       <c r="N4" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!N4*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!N4*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.057675756813619</v>
       </c>
       <c r="O4" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!O4*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!O4*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>18.851457277257953</v>
       </c>
       <c r="P4" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!P4*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!P4*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>19.612782766197238</v>
       </c>
       <c r="Q4" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!Q4*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!Q4*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>17.784736450141889</v>
       </c>
       <c r="R4" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!R4*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!R4*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>17.302852021347366</v>
       </c>
       <c r="S4" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!S4*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!S4*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>17.211146905634227</v>
       </c>
       <c r="T4" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!T4*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!T4*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>17.437814267113872</v>
       </c>
       <c r="U4" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!U4*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!U4*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>19.805709566235262</v>
       </c>
       <c r="V4" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!V4*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!V4*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>24.005111751816269</v>
       </c>
       <c r="W4" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!W4*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!W4*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>23.97310147557678</v>
       </c>
       <c r="X4" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!X4*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!X4*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.699611566805608</v>
       </c>
       <c r="Y4" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!Y4*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!Y4*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>21.593094180040445</v>
       </c>
     </row>
@@ -11974,99 +11919,99 @@
         <v>9</v>
       </c>
       <c r="B5" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!B5*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!B5*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>24.060480878284579</v>
       </c>
       <c r="C5" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!C5*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!C5*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.92627892828526</v>
       </c>
       <c r="D5" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!D5*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!D5*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.45045049769821</v>
       </c>
       <c r="E5" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!E5*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!E5*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>21.801593546897681</v>
       </c>
       <c r="F5" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!F5*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!F5*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.017879197164518</v>
       </c>
       <c r="G5" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!G5*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!G5*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.949637778514077</v>
       </c>
       <c r="H5" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!H5*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!H5*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>24.902264629123124</v>
       </c>
       <c r="I5" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!I5*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!I5*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>25.832292925270547</v>
       </c>
       <c r="J5" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!J5*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!J5*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>26.956978306658126</v>
       </c>
       <c r="K5" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!K5*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!K5*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>25.55890786333326</v>
       </c>
       <c r="L5" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!L5*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!L5*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>24.978397178017058</v>
       </c>
       <c r="M5" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!M5*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!M5*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.685769285188531</v>
       </c>
       <c r="N5" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!N5*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!N5*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.057675756813619</v>
       </c>
       <c r="O5" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!O5*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!O5*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>18.851457277257953</v>
       </c>
       <c r="P5" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!P5*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!P5*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>19.612782766197238</v>
       </c>
       <c r="Q5" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!Q5*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!Q5*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>17.784736450141889</v>
       </c>
       <c r="R5" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!R5*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!R5*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>17.302852021347366</v>
       </c>
       <c r="S5" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!S5*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!S5*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>17.211146905634227</v>
       </c>
       <c r="T5" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!T5*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!T5*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>17.437814267113872</v>
       </c>
       <c r="U5" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!U5*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!U5*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>19.805709566235262</v>
       </c>
       <c r="V5" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!V5*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!V5*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>24.005111751816269</v>
       </c>
       <c r="W5" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!W5*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!W5*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>23.97310147557678</v>
       </c>
       <c r="X5" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!X5*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!X5*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.699611566805608</v>
       </c>
       <c r="Y5" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!Y5*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!Y5*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>21.593094180040445</v>
       </c>
     </row>
@@ -12075,99 +12020,99 @@
         <v>2</v>
       </c>
       <c r="B6" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!B6*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!B6*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>24.060480878284579</v>
       </c>
       <c r="C6" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!C6*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!C6*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.92627892828526</v>
       </c>
       <c r="D6" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!D6*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!D6*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.45045049769821</v>
       </c>
       <c r="E6" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!E6*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!E6*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>21.801593546897681</v>
       </c>
       <c r="F6" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!F6*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!F6*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.017879197164518</v>
       </c>
       <c r="G6" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!G6*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!G6*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.949637778514077</v>
       </c>
       <c r="H6" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!H6*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!H6*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>24.902264629123124</v>
       </c>
       <c r="I6" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!I6*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!I6*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>25.832292925270547</v>
       </c>
       <c r="J6" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!J6*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!J6*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>26.956978306658126</v>
       </c>
       <c r="K6" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!K6*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!K6*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>25.55890786333326</v>
       </c>
       <c r="L6" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!L6*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!L6*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>24.978397178017058</v>
       </c>
       <c r="M6" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!M6*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!M6*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.685769285188531</v>
       </c>
       <c r="N6" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!N6*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!N6*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.057675756813619</v>
       </c>
       <c r="O6" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!O6*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!O6*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>18.851457277257953</v>
       </c>
       <c r="P6" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!P6*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!P6*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>19.612782766197238</v>
       </c>
       <c r="Q6" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!Q6*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!Q6*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>17.784736450141889</v>
       </c>
       <c r="R6" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!R6*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!R6*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>17.302852021347366</v>
       </c>
       <c r="S6" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!S6*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!S6*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>17.211146905634227</v>
       </c>
       <c r="T6" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!T6*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!T6*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>17.437814267113872</v>
       </c>
       <c r="U6" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!U6*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!U6*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>19.805709566235262</v>
       </c>
       <c r="V6" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!V6*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!V6*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>24.005111751816269</v>
       </c>
       <c r="W6" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!W6*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!W6*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>23.97310147557678</v>
       </c>
       <c r="X6" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!X6*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!X6*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.699611566805608</v>
       </c>
       <c r="Y6" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!Y6*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!Y6*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>21.593094180040445</v>
       </c>
     </row>
@@ -12176,99 +12121,99 @@
         <v>12</v>
       </c>
       <c r="B7" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!B7*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!B7*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>24.060480878284579</v>
       </c>
       <c r="C7" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!C7*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!C7*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.92627892828526</v>
       </c>
       <c r="D7" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!D7*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!D7*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.45045049769821</v>
       </c>
       <c r="E7" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!E7*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!E7*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>21.801593546897681</v>
       </c>
       <c r="F7" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!F7*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!F7*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.017879197164518</v>
       </c>
       <c r="G7" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!G7*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!G7*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.949637778514077</v>
       </c>
       <c r="H7" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!H7*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!H7*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>24.902264629123124</v>
       </c>
       <c r="I7" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!I7*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!I7*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>25.832292925270547</v>
       </c>
       <c r="J7" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!J7*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!J7*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>26.956978306658126</v>
       </c>
       <c r="K7" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!K7*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!K7*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>25.55890786333326</v>
       </c>
       <c r="L7" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!L7*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!L7*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>24.978397178017058</v>
       </c>
       <c r="M7" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!M7*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!M7*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.685769285188531</v>
       </c>
       <c r="N7" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!N7*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!N7*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.057675756813619</v>
       </c>
       <c r="O7" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!O7*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!O7*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>18.851457277257953</v>
       </c>
       <c r="P7" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!P7*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!P7*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>19.612782766197238</v>
       </c>
       <c r="Q7" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!Q7*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!Q7*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>17.784736450141889</v>
       </c>
       <c r="R7" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!R7*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!R7*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>17.302852021347366</v>
       </c>
       <c r="S7" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!S7*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!S7*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>17.211146905634227</v>
       </c>
       <c r="T7" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!T7*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!T7*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>17.437814267113872</v>
       </c>
       <c r="U7" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!U7*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!U7*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>19.805709566235262</v>
       </c>
       <c r="V7" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!V7*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!V7*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>24.005111751816269</v>
       </c>
       <c r="W7" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!W7*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!W7*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>23.97310147557678</v>
       </c>
       <c r="X7" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!X7*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!X7*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.699611566805608</v>
       </c>
       <c r="Y7" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!Y7*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!Y7*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>21.593094180040445</v>
       </c>
     </row>
@@ -12277,99 +12222,99 @@
         <v>16</v>
       </c>
       <c r="B8" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!B8*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!B8*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>24.060480878284579</v>
       </c>
       <c r="C8" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!C8*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!C8*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.92627892828526</v>
       </c>
       <c r="D8" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!D8*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!D8*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.45045049769821</v>
       </c>
       <c r="E8" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!E8*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!E8*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>21.801593546897681</v>
       </c>
       <c r="F8" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!F8*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!F8*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.017879197164518</v>
       </c>
       <c r="G8" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!G8*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!G8*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.949637778514077</v>
       </c>
       <c r="H8" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!H8*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!H8*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>24.902264629123124</v>
       </c>
       <c r="I8" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!I8*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!I8*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>25.832292925270547</v>
       </c>
       <c r="J8" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!J8*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!J8*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>26.956978306658126</v>
       </c>
       <c r="K8" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!K8*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!K8*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>25.55890786333326</v>
       </c>
       <c r="L8" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!L8*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!L8*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>24.978397178017058</v>
       </c>
       <c r="M8" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!M8*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!M8*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.685769285188531</v>
       </c>
       <c r="N8" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!N8*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!N8*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.057675756813619</v>
       </c>
       <c r="O8" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!O8*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!O8*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>18.851457277257953</v>
       </c>
       <c r="P8" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!P8*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!P8*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>19.612782766197238</v>
       </c>
       <c r="Q8" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!Q8*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!Q8*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>17.784736450141889</v>
       </c>
       <c r="R8" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!R8*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!R8*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>17.302852021347366</v>
       </c>
       <c r="S8" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!S8*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!S8*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>17.211146905634227</v>
       </c>
       <c r="T8" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!T8*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!T8*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>17.437814267113872</v>
       </c>
       <c r="U8" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!U8*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!U8*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>19.805709566235262</v>
       </c>
       <c r="V8" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!V8*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!V8*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>24.005111751816269</v>
       </c>
       <c r="W8" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!W8*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!W8*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>23.97310147557678</v>
       </c>
       <c r="X8" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!X8*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!X8*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.699611566805608</v>
       </c>
       <c r="Y8" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!Y8*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!Y8*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>21.593094180040445</v>
       </c>
     </row>
@@ -12378,99 +12323,99 @@
         <v>21</v>
       </c>
       <c r="B9" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!B9*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!B9*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>24.060480878284579</v>
       </c>
       <c r="C9" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!C9*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!C9*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.92627892828526</v>
       </c>
       <c r="D9" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!D9*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!D9*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.45045049769821</v>
       </c>
       <c r="E9" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!E9*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!E9*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>21.801593546897681</v>
       </c>
       <c r="F9" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!F9*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!F9*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.017879197164518</v>
       </c>
       <c r="G9" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!G9*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!G9*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.949637778514077</v>
       </c>
       <c r="H9" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!H9*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!H9*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>24.902264629123124</v>
       </c>
       <c r="I9" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!I9*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!I9*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>25.832292925270547</v>
       </c>
       <c r="J9" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!J9*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!J9*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>26.956978306658126</v>
       </c>
       <c r="K9" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!K9*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!K9*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>25.55890786333326</v>
       </c>
       <c r="L9" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!L9*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!L9*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>24.978397178017058</v>
       </c>
       <c r="M9" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!M9*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!M9*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.685769285188531</v>
       </c>
       <c r="N9" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!N9*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!N9*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.057675756813619</v>
       </c>
       <c r="O9" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!O9*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!O9*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>18.851457277257953</v>
       </c>
       <c r="P9" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!P9*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!P9*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>19.612782766197238</v>
       </c>
       <c r="Q9" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!Q9*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!Q9*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>17.784736450141889</v>
       </c>
       <c r="R9" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!R9*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!R9*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>17.302852021347366</v>
       </c>
       <c r="S9" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!S9*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!S9*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>17.211146905634227</v>
       </c>
       <c r="T9" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!T9*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!T9*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>17.437814267113872</v>
       </c>
       <c r="U9" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!U9*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!U9*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>19.805709566235262</v>
       </c>
       <c r="V9" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!V9*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!V9*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>24.005111751816269</v>
       </c>
       <c r="W9" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!W9*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!W9*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>23.97310147557678</v>
       </c>
       <c r="X9" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!X9*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!X9*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.699611566805608</v>
       </c>
       <c r="Y9" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!Y9*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!Y9*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>21.593094180040445</v>
       </c>
     </row>
@@ -12479,99 +12424,99 @@
         <v>23</v>
       </c>
       <c r="B10" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!B10*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!B10*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>24.060480878284579</v>
       </c>
       <c r="C10" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!C10*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!C10*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.92627892828526</v>
       </c>
       <c r="D10" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!D10*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!D10*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.45045049769821</v>
       </c>
       <c r="E10" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!E10*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!E10*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>21.801593546897681</v>
       </c>
       <c r="F10" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!F10*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!F10*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.017879197164518</v>
       </c>
       <c r="G10" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!G10*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!G10*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.949637778514077</v>
       </c>
       <c r="H10" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!H10*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!H10*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>24.902264629123124</v>
       </c>
       <c r="I10" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!I10*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!I10*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>25.832292925270547</v>
       </c>
       <c r="J10" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!J10*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!J10*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>26.956978306658126</v>
       </c>
       <c r="K10" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!K10*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!K10*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>25.55890786333326</v>
       </c>
       <c r="L10" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!L10*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!L10*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>24.978397178017058</v>
       </c>
       <c r="M10" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!M10*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!M10*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.685769285188531</v>
       </c>
       <c r="N10" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!N10*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!N10*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.057675756813619</v>
       </c>
       <c r="O10" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!O10*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!O10*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>18.851457277257953</v>
       </c>
       <c r="P10" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!P10*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!P10*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>19.612782766197238</v>
       </c>
       <c r="Q10" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!Q10*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!Q10*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>17.784736450141889</v>
       </c>
       <c r="R10" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!R10*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!R10*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>17.302852021347366</v>
       </c>
       <c r="S10" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!S10*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!S10*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>17.211146905634227</v>
       </c>
       <c r="T10" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!T10*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!T10*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>17.437814267113872</v>
       </c>
       <c r="U10" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!U10*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!U10*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>19.805709566235262</v>
       </c>
       <c r="V10" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!V10*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!V10*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>24.005111751816269</v>
       </c>
       <c r="W10" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!W10*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!W10*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>23.97310147557678</v>
       </c>
       <c r="X10" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!X10*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!X10*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.699611566805608</v>
       </c>
       <c r="Y10" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!Y10*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!Y10*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>21.593094180040445</v>
       </c>
     </row>
@@ -12580,99 +12525,99 @@
         <v>24</v>
       </c>
       <c r="B11" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!B11*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!B11*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>24.060480878284579</v>
       </c>
       <c r="C11" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!C11*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!C11*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.92627892828526</v>
       </c>
       <c r="D11" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!D11*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!D11*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.45045049769821</v>
       </c>
       <c r="E11" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!E11*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!E11*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>21.801593546897681</v>
       </c>
       <c r="F11" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!F11*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!F11*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.017879197164518</v>
       </c>
       <c r="G11" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!G11*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!G11*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.949637778514077</v>
       </c>
       <c r="H11" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!H11*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!H11*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>24.902264629123124</v>
       </c>
       <c r="I11" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!I11*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!I11*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>25.832292925270547</v>
       </c>
       <c r="J11" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!J11*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!J11*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>26.956978306658126</v>
       </c>
       <c r="K11" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!K11*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!K11*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>25.55890786333326</v>
       </c>
       <c r="L11" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!L11*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!L11*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>24.978397178017058</v>
       </c>
       <c r="M11" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!M11*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!M11*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.685769285188531</v>
       </c>
       <c r="N11" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!N11*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!N11*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.057675756813619</v>
       </c>
       <c r="O11" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!O11*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!O11*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>18.851457277257953</v>
       </c>
       <c r="P11" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!P11*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!P11*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>19.612782766197238</v>
       </c>
       <c r="Q11" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!Q11*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!Q11*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>17.784736450141889</v>
       </c>
       <c r="R11" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!R11*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!R11*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>17.302852021347366</v>
       </c>
       <c r="S11" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!S11*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!S11*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>17.211146905634227</v>
       </c>
       <c r="T11" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!T11*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!T11*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>17.437814267113872</v>
       </c>
       <c r="U11" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!U11*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!U11*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>19.805709566235262</v>
       </c>
       <c r="V11" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!V11*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!V11*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>24.005111751816269</v>
       </c>
       <c r="W11" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!W11*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!W11*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>23.97310147557678</v>
       </c>
       <c r="X11" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!X11*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!X11*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.699611566805608</v>
       </c>
       <c r="Y11" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!Y11*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!Y11*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>21.593094180040445</v>
       </c>
     </row>
@@ -12681,99 +12626,99 @@
         <v>15</v>
       </c>
       <c r="B12" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!B12*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!B12*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>24.060480878284579</v>
       </c>
       <c r="C12" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!C12*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!C12*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.92627892828526</v>
       </c>
       <c r="D12" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!D12*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!D12*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.45045049769821</v>
       </c>
       <c r="E12" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!E12*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!E12*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>21.801593546897681</v>
       </c>
       <c r="F12" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!F12*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!F12*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.017879197164518</v>
       </c>
       <c r="G12" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!G12*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!G12*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.949637778514077</v>
       </c>
       <c r="H12" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!H12*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!H12*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>24.902264629123124</v>
       </c>
       <c r="I12" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!I12*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!I12*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>25.832292925270547</v>
       </c>
       <c r="J12" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!J12*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!J12*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>26.956978306658126</v>
       </c>
       <c r="K12" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!K12*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!K12*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>25.55890786333326</v>
       </c>
       <c r="L12" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!L12*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!L12*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>24.978397178017058</v>
       </c>
       <c r="M12" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!M12*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!M12*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.685769285188531</v>
       </c>
       <c r="N12" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!N12*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!N12*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.057675756813619</v>
       </c>
       <c r="O12" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!O12*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!O12*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>18.851457277257953</v>
       </c>
       <c r="P12" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!P12*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!P12*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>19.612782766197238</v>
       </c>
       <c r="Q12" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!Q12*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!Q12*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>17.784736450141889</v>
       </c>
       <c r="R12" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!R12*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!R12*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>17.302852021347366</v>
       </c>
       <c r="S12" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!S12*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!S12*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>17.211146905634227</v>
       </c>
       <c r="T12" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!T12*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!T12*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>17.437814267113872</v>
       </c>
       <c r="U12" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!U12*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!U12*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>19.805709566235262</v>
       </c>
       <c r="V12" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!V12*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!V12*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>24.005111751816269</v>
       </c>
       <c r="W12" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!W12*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!W12*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>23.97310147557678</v>
       </c>
       <c r="X12" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!X12*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!X12*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.699611566805608</v>
       </c>
       <c r="Y12" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!Y12*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!Y12*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>21.593094180040445</v>
       </c>
     </row>
@@ -12782,99 +12727,99 @@
         <v>17</v>
       </c>
       <c r="B13" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!B13*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!B13*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>24.060480878284579</v>
       </c>
       <c r="C13" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!C13*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!C13*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.92627892828526</v>
       </c>
       <c r="D13" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!D13*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!D13*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.45045049769821</v>
       </c>
       <c r="E13" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!E13*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!E13*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>21.801593546897681</v>
       </c>
       <c r="F13" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!F13*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!F13*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.017879197164518</v>
       </c>
       <c r="G13" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!G13*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!G13*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.949637778514077</v>
       </c>
       <c r="H13" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!H13*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!H13*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>24.902264629123124</v>
       </c>
       <c r="I13" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!I13*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!I13*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>25.832292925270547</v>
       </c>
       <c r="J13" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!J13*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!J13*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>26.956978306658126</v>
       </c>
       <c r="K13" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!K13*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!K13*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>25.55890786333326</v>
       </c>
       <c r="L13" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!L13*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!L13*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>24.978397178017058</v>
       </c>
       <c r="M13" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!M13*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!M13*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.685769285188531</v>
       </c>
       <c r="N13" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!N13*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!N13*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.057675756813619</v>
       </c>
       <c r="O13" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!O13*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!O13*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>18.851457277257953</v>
       </c>
       <c r="P13" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!P13*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!P13*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>19.612782766197238</v>
       </c>
       <c r="Q13" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!Q13*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!Q13*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>17.784736450141889</v>
       </c>
       <c r="R13" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!R13*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!R13*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>17.302852021347366</v>
       </c>
       <c r="S13" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!S13*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!S13*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>17.211146905634227</v>
       </c>
       <c r="T13" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!T13*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!T13*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>17.437814267113872</v>
       </c>
       <c r="U13" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!U13*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!U13*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>19.805709566235262</v>
       </c>
       <c r="V13" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!V13*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!V13*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>24.005111751816269</v>
       </c>
       <c r="W13" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!W13*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!W13*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>23.97310147557678</v>
       </c>
       <c r="X13" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!X13*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!X13*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.699611566805608</v>
       </c>
       <c r="Y13" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!Y13*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!Y13*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>21.593094180040445</v>
       </c>
     </row>
@@ -12883,99 +12828,99 @@
         <v>19</v>
       </c>
       <c r="B14" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!B14*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!B14*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>24.060480878284579</v>
       </c>
       <c r="C14" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!C14*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!C14*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.92627892828526</v>
       </c>
       <c r="D14" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!D14*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!D14*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.45045049769821</v>
       </c>
       <c r="E14" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!E14*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!E14*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>21.801593546897681</v>
       </c>
       <c r="F14" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!F14*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!F14*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.017879197164518</v>
       </c>
       <c r="G14" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!G14*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!G14*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.949637778514077</v>
       </c>
       <c r="H14" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!H14*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!H14*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>24.902264629123124</v>
       </c>
       <c r="I14" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!I14*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!I14*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>25.832292925270547</v>
       </c>
       <c r="J14" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!J14*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!J14*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>26.956978306658126</v>
       </c>
       <c r="K14" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!K14*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!K14*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>25.55890786333326</v>
       </c>
       <c r="L14" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!L14*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!L14*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>24.978397178017058</v>
       </c>
       <c r="M14" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!M14*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!M14*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.685769285188531</v>
       </c>
       <c r="N14" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!N14*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!N14*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.057675756813619</v>
       </c>
       <c r="O14" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!O14*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!O14*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>18.851457277257953</v>
       </c>
       <c r="P14" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!P14*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!P14*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>19.612782766197238</v>
       </c>
       <c r="Q14" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!Q14*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!Q14*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>17.784736450141889</v>
       </c>
       <c r="R14" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!R14*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!R14*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>17.302852021347366</v>
       </c>
       <c r="S14" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!S14*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!S14*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>17.211146905634227</v>
       </c>
       <c r="T14" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!T14*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!T14*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>17.437814267113872</v>
       </c>
       <c r="U14" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!U14*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!U14*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>19.805709566235262</v>
       </c>
       <c r="V14" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!V14*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!V14*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>24.005111751816269</v>
       </c>
       <c r="W14" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!W14*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!W14*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>23.97310147557678</v>
       </c>
       <c r="X14" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!X14*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!X14*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>22.699611566805608</v>
       </c>
       <c r="Y14" s="1">
-        <f>'[2]CostFlex, 2020, Summer'!Y14*(1+[2]Main!$B$5)^(Main!$B$5-2020)</f>
+        <f>'[1]CostFlex, 2020, Summer'!Y14*(1+[1]Main!$B$5)^(Main!$B$5-2020)</f>
         <v>21.593094180040445</v>
       </c>
     </row>
@@ -12989,7 +12934,7 @@
   <dimension ref="A1:Y14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13077,99 +13022,99 @@
       </c>
       <c r="B2" s="1">
         <f>'[1]Pc, 2020, Summer'!B2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1852407479841194</v>
+        <v>1.0667166731857074</v>
       </c>
       <c r="C2" s="1">
         <f>'[1]Pc, 2020, Summer'!C2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1229992560566109</v>
+        <v>1.0106993304509497</v>
       </c>
       <c r="D2" s="1">
         <f>'[1]Pc, 2020, Summer'!D2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.93731316734891512</v>
+        <v>0.84358185061402369</v>
       </c>
       <c r="E2" s="1">
         <f>'[1]Pc, 2020, Summer'!E2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0619939583773361</v>
+        <v>0.9557945625396026</v>
       </c>
       <c r="F2" s="1">
         <f>'[1]Pc, 2020, Summer'!F2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0414905805746149</v>
+        <v>0.9373415225171533</v>
       </c>
       <c r="G2" s="1">
         <f>'[1]Pc, 2020, Summer'!G2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0459726018523776</v>
+        <v>0.94137534166713999</v>
       </c>
       <c r="H2" s="1">
         <f>'[1]Pc, 2020, Summer'!H2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1540147480639242</v>
+        <v>1.0386132732575317</v>
       </c>
       <c r="I2" s="1">
         <f>'[1]Pc, 2020, Summer'!I2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2472391671699927</v>
+        <v>1.1225152504529934</v>
       </c>
       <c r="J2" s="1">
         <f>'[1]Pc, 2020, Summer'!J2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3003346873668471</v>
+        <v>1.1703012186301625</v>
       </c>
       <c r="K2" s="1">
         <f>'[1]Pc, 2020, Summer'!K2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2635970601082573</v>
+        <v>1.1372373540974317</v>
       </c>
       <c r="L2" s="1">
         <f>'[1]Pc, 2020, Summer'!L2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2471479143063364</v>
+        <v>1.122433122875703</v>
       </c>
       <c r="M2" s="1">
         <f>'[1]Pc, 2020, Summer'!M2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3714422536050317</v>
+        <v>1.2342980282445286</v>
       </c>
       <c r="N2" s="1">
         <f>'[1]Pc, 2020, Summer'!N2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.336962695049041</v>
+        <v>1.203266425544137</v>
       </c>
       <c r="O2" s="1">
         <f>'[1]Pc, 2020, Summer'!O2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3371873305643605</v>
+        <v>1.2034685975079242</v>
       </c>
       <c r="P2" s="1">
         <f>'[1]Pc, 2020, Summer'!P2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2995969826256217</v>
+        <v>1.1696372843630598</v>
       </c>
       <c r="Q2" s="1">
         <f>'[1]Pc, 2020, Summer'!Q2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2817517468190545</v>
+        <v>1.1535765721371491</v>
       </c>
       <c r="R2" s="1">
         <f>'[1]Pc, 2020, Summer'!R2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2858555457162504</v>
+        <v>1.1572699911446254</v>
       </c>
       <c r="S2" s="1">
         <f>'[1]Pc, 2020, Summer'!S2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1539380790670233</v>
+        <v>1.038544271160321</v>
       </c>
       <c r="T2" s="1">
         <f>'[1]Pc, 2020, Summer'!T2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3919080269322122</v>
+        <v>1.2527172242389912</v>
       </c>
       <c r="U2" s="1">
         <f>'[1]Pc, 2020, Summer'!U2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4119405233670388</v>
+        <v>1.2707464710303347</v>
       </c>
       <c r="V2" s="1">
         <f>'[1]Pc, 2020, Summer'!V2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3212089292510392</v>
+        <v>1.1890880363259355</v>
       </c>
       <c r="W2" s="1">
         <f>'[1]Pc, 2020, Summer'!W2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3505487366273212</v>
+        <v>1.2154938629645891</v>
       </c>
       <c r="X2" s="1">
         <f>'[1]Pc, 2020, Summer'!X2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2505012869835419</v>
+        <v>1.1254511582851876</v>
       </c>
       <c r="Y2" s="1">
         <f>'[1]Pc, 2020, Summer'!Y2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1028515404378463</v>
+        <v>0.99256638639406169</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -13178,99 +13123,99 @@
       </c>
       <c r="B3" s="1">
         <f>'[1]Pc, 2020, Summer'!B3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.99789089558767174</v>
+        <v>-0.89810180602890455</v>
       </c>
       <c r="C3" s="1">
         <f>'[1]Pc, 2020, Summer'!C3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.6246711569107626</v>
+        <v>-1.4622040412196864</v>
       </c>
       <c r="D3" s="1">
         <f>'[1]Pc, 2020, Summer'!D3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.85836846920349508</v>
+        <v>-0.77253162228314565</v>
       </c>
       <c r="E3" s="1">
         <f>'[1]Pc, 2020, Summer'!E3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.82002965698133456</v>
+        <v>-0.7380266912832012</v>
       </c>
       <c r="F3" s="1">
         <f>'[1]Pc, 2020, Summer'!F3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.2906398586963037</v>
+        <v>-1.1615758728266734</v>
       </c>
       <c r="G3" s="1">
         <f>'[1]Pc, 2020, Summer'!G3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.1490143422930852</v>
+        <v>-1.9341129080637767</v>
       </c>
       <c r="H3" s="1">
         <f>'[1]Pc, 2020, Summer'!H3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.7400070034871848</v>
+        <v>-1.5660063031384663</v>
       </c>
       <c r="I3" s="1">
         <f>'[1]Pc, 2020, Summer'!I3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.3935892365093518</v>
+        <v>-1.2542303128584167</v>
       </c>
       <c r="J3" s="1">
         <f>'[1]Pc, 2020, Summer'!J3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.2017793423317102</v>
+        <v>-1.0816014080985392</v>
       </c>
       <c r="K3" s="1">
         <f>'[1]Pc, 2020, Summer'!K3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.1685419675300952</v>
+        <v>-1.0516877707770858</v>
       </c>
       <c r="L3" s="1">
         <f>'[1]Pc, 2020, Summer'!L3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.2493698593185003</v>
+        <v>-1.1244328733866502</v>
       </c>
       <c r="M3" s="1">
         <f>'[1]Pc, 2020, Summer'!M3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.1340034388848956</v>
+        <v>-1.020603094996406</v>
       </c>
       <c r="N3" s="1">
         <f>'[1]Pc, 2020, Summer'!N3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.1812710119872067</v>
+        <v>-1.0631439107884861</v>
       </c>
       <c r="O3" s="1">
         <f>'[1]Pc, 2020, Summer'!O3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.3015471600183877</v>
+        <v>-1.1713924440165491</v>
       </c>
       <c r="P3" s="1">
         <f>'[1]Pc, 2020, Summer'!P3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.4970021083561966</v>
+        <v>-1.3473018975205771</v>
       </c>
       <c r="Q3" s="1">
         <f>'[1]Pc, 2020, Summer'!Q3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.6556764659280632</v>
+        <v>-1.4901088193352567</v>
       </c>
       <c r="R3" s="1">
         <f>'[1]Pc, 2020, Summer'!R3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.7356365844616735</v>
+        <v>-1.562072926015506</v>
       </c>
       <c r="S3" s="1">
         <f>'[1]Pc, 2020, Summer'!S3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.5347371833366936</v>
+        <v>-1.3812634650030244</v>
       </c>
       <c r="T3" s="1">
         <f>'[1]Pc, 2020, Summer'!T3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.3531663084298655</v>
+        <v>-1.2178496775868788</v>
       </c>
       <c r="U3" s="1">
         <f>'[1]Pc, 2020, Summer'!U3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.51705132251829189</v>
+        <v>-0.46534619026646273</v>
       </c>
       <c r="V3" s="1">
         <f>'[1]Pc, 2020, Summer'!V3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.2319126449935611</v>
+        <v>-0.20872138049420499</v>
       </c>
       <c r="W3" s="1">
         <f>'[1]Pc, 2020, Summer'!W3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.71671923306537377</v>
+        <v>-0.64504730975883651</v>
       </c>
       <c r="X3" s="1">
         <f>'[1]Pc, 2020, Summer'!X3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.304717641217539</v>
+        <v>-1.1742458770957851</v>
       </c>
       <c r="Y3" s="1">
         <f>'[1]Pc, 2020, Summer'!Y3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.7648953261121694</v>
+        <v>-1.5884057935009523</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -13279,99 +13224,99 @@
       </c>
       <c r="B4" s="1">
         <f>'[1]Pc, 2020, Summer'!B4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-7.9412970510985934E-2</v>
+        <v>-7.1471673459887336E-2</v>
       </c>
       <c r="C4" s="1">
         <f>'[1]Pc, 2020, Summer'!C4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.27666974397240057</v>
+        <v>-0.24900276957516054</v>
       </c>
       <c r="D4" s="1">
         <f>'[1]Pc, 2020, Summer'!D4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.95579329910222688</v>
+        <v>-0.86021396919200421</v>
       </c>
       <c r="E4" s="1">
         <f>'[1]Pc, 2020, Summer'!E4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.0332598159831906E-2</v>
+        <v>5.4299338343848716E-2</v>
       </c>
       <c r="F4" s="1">
         <f>'[1]Pc, 2020, Summer'!F4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.9129761995225521E-2</v>
+        <v>4.4216785795702963E-2</v>
       </c>
       <c r="G4" s="1">
         <f>'[1]Pc, 2020, Summer'!G4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.18001522512222159</v>
+        <v>0.16201370260999942</v>
       </c>
       <c r="H4" s="1">
         <f>'[1]Pc, 2020, Summer'!H4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.18397133540744759</v>
+        <v>-0.16557420186670282</v>
       </c>
       <c r="I4" s="1">
         <f>'[1]Pc, 2020, Summer'!I4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.6345686351661316</v>
+        <v>-0.57111177164951843</v>
       </c>
       <c r="J4" s="1">
         <f>'[1]Pc, 2020, Summer'!J4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.74146925367977234</v>
+        <v>-0.66732232831179505</v>
       </c>
       <c r="K4" s="1">
         <f>'[1]Pc, 2020, Summer'!K4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.49373269017534493</v>
+        <v>-0.44435942115781046</v>
       </c>
       <c r="L4" s="1">
         <f>'[1]Pc, 2020, Summer'!L4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.52107904556220075</v>
+        <v>-0.4689711410059807</v>
       </c>
       <c r="M4" s="1">
         <f>'[1]Pc, 2020, Summer'!M4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.58562276013474535</v>
+        <v>-0.52706048412127082</v>
       </c>
       <c r="N4" s="1">
         <f>'[1]Pc, 2020, Summer'!N4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.45453866441071461</v>
+        <v>-0.40908479796964314</v>
       </c>
       <c r="O4" s="1">
         <f>'[1]Pc, 2020, Summer'!O4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.53709406830884998</v>
+        <v>-0.48338466147796494</v>
       </c>
       <c r="P4" s="1">
         <f>'[1]Pc, 2020, Summer'!P4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.93061835123249892</v>
+        <v>-0.83755651610924897</v>
       </c>
       <c r="Q4" s="1">
         <f>'[1]Pc, 2020, Summer'!Q4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.26631809792854827</v>
+        <v>-0.23968628813569343</v>
       </c>
       <c r="R4" s="1">
         <f>'[1]Pc, 2020, Summer'!R4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.26546170639456579</v>
+        <v>-0.23891553575510921</v>
       </c>
       <c r="S4" s="1">
         <f>'[1]Pc, 2020, Summer'!S4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.29047765029723055</v>
+        <v>-0.26142988526750749</v>
       </c>
       <c r="T4" s="1">
         <f>'[1]Pc, 2020, Summer'!T4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.26470508742341897</v>
+        <v>-0.23823457868107709</v>
       </c>
       <c r="U4" s="1">
         <f>'[1]Pc, 2020, Summer'!U4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.17060235535680332</v>
+        <v>-0.15354211982112298</v>
       </c>
       <c r="V4" s="1">
         <f>'[1]Pc, 2020, Summer'!V4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.27562659515723115</v>
+        <v>-0.24806393564150805</v>
       </c>
       <c r="W4" s="1">
         <f>'[1]Pc, 2020, Summer'!W4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.23881351422397024</v>
+        <v>-0.21493216280157323</v>
       </c>
       <c r="X4" s="1">
         <f>'[1]Pc, 2020, Summer'!X4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-4.7731340894698424E-2</v>
+        <v>-4.2958206805228584E-2</v>
       </c>
       <c r="Y4" s="1">
         <f>'[1]Pc, 2020, Summer'!Y4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.11742174186458972</v>
+        <v>0.10567956767813075</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -13380,99 +13325,99 @@
       </c>
       <c r="B5" s="1">
         <f>'[1]Pc, 2020, Summer'!B5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.132444945956153</v>
+        <v>1.9192004513605379</v>
       </c>
       <c r="C5" s="1">
         <f>'[1]Pc, 2020, Summer'!C5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.9613763506839288</v>
+        <v>1.765238715615536</v>
       </c>
       <c r="D5" s="1">
         <f>'[1]Pc, 2020, Summer'!D5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.8874508918681874</v>
+        <v>1.6987058026813686</v>
       </c>
       <c r="E5" s="1">
         <f>'[1]Pc, 2020, Summer'!E5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.8828680693589441</v>
+        <v>1.6945812624230498</v>
       </c>
       <c r="F5" s="1">
         <f>'[1]Pc, 2020, Summer'!F5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.8588022627162388</v>
+        <v>1.6729220364446151</v>
       </c>
       <c r="G5" s="1">
         <f>'[1]Pc, 2020, Summer'!G5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.7632232791521125</v>
+        <v>1.5869009512369012</v>
       </c>
       <c r="H5" s="1">
         <f>'[1]Pc, 2020, Summer'!H5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.1349136926337895</v>
+        <v>1.9214223233704104</v>
       </c>
       <c r="I5" s="1">
         <f>'[1]Pc, 2020, Summer'!I5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.7611348559569748</v>
+        <v>2.4850213703612773</v>
       </c>
       <c r="J5" s="1">
         <f>'[1]Pc, 2020, Summer'!J5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.3912267293285754</v>
+        <v>3.0521040563957182</v>
       </c>
       <c r="K5" s="1">
         <f>'[1]Pc, 2020, Summer'!K5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.8100254008561922</v>
+        <v>3.4290228607705728</v>
       </c>
       <c r="L5" s="1">
         <f>'[1]Pc, 2020, Summer'!L5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.7580503330935966</v>
+        <v>3.3822452997842367</v>
       </c>
       <c r="M5" s="1">
         <f>'[1]Pc, 2020, Summer'!M5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.9717588862464055</v>
+        <v>3.5745829976217651</v>
       </c>
       <c r="N5" s="1">
         <f>'[1]Pc, 2020, Summer'!N5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.9798454578564448</v>
+        <v>3.5818609120708005</v>
       </c>
       <c r="O5" s="1">
         <f>'[1]Pc, 2020, Summer'!O5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.8489915682202738</v>
+        <v>3.4640924113982465</v>
       </c>
       <c r="P5" s="1">
         <f>'[1]Pc, 2020, Summer'!P5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.7361863460587612</v>
+        <v>3.3625677114528849</v>
       </c>
       <c r="Q5" s="1">
         <f>'[1]Pc, 2020, Summer'!Q5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.4674957524844463</v>
+        <v>3.1207461772360019</v>
       </c>
       <c r="R5" s="1">
         <f>'[1]Pc, 2020, Summer'!R5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.3725969843574419</v>
+        <v>3.035337285921698</v>
       </c>
       <c r="S5" s="1">
         <f>'[1]Pc, 2020, Summer'!S5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.3725969843574419</v>
+        <v>3.035337285921698</v>
       </c>
       <c r="T5" s="1">
         <f>'[1]Pc, 2020, Summer'!T5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.3725969843574419</v>
+        <v>3.035337285921698</v>
       </c>
       <c r="U5" s="1">
         <f>'[1]Pc, 2020, Summer'!U5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.3725969843574419</v>
+        <v>3.035337285921698</v>
       </c>
       <c r="V5" s="1">
         <f>'[1]Pc, 2020, Summer'!V5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.3832258648967968</v>
+        <v>3.0449032784071171</v>
       </c>
       <c r="W5" s="1">
         <f>'[1]Pc, 2020, Summer'!W5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.4425920786390809</v>
+        <v>3.0983328707751729</v>
       </c>
       <c r="X5" s="1">
         <f>'[1]Pc, 2020, Summer'!X5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.1102570301328352</v>
+        <v>2.7992313271195517</v>
       </c>
       <c r="Y5" s="1">
         <f>'[1]Pc, 2020, Summer'!Y5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.6400378635300625</v>
+        <v>2.3760340771770561</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -13481,99 +13426,99 @@
       </c>
       <c r="B6" s="1">
         <f>'[1]Pc, 2020, Summer'!B6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.3429636225284263</v>
+        <v>2.1086672602755834</v>
       </c>
       <c r="C6" s="1">
         <f>'[1]Pc, 2020, Summer'!C6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.0777722112638672</v>
+        <v>1.8699949901374806</v>
       </c>
       <c r="D6" s="1">
         <f>'[1]Pc, 2020, Summer'!D6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.9413633408833502</v>
+        <v>1.7472270067950153</v>
       </c>
       <c r="E6" s="1">
         <f>'[1]Pc, 2020, Summer'!E6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.8824534661207801</v>
+        <v>1.6942081195087024</v>
       </c>
       <c r="F6" s="1">
         <f>'[1]Pc, 2020, Summer'!F6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.912967465572299</v>
+        <v>1.7216707190150693</v>
       </c>
       <c r="G6" s="1">
         <f>'[1]Pc, 2020, Summer'!G6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.9150583797679674</v>
+        <v>1.7235525417911708</v>
       </c>
       <c r="H6" s="1">
         <f>'[1]Pc, 2020, Summer'!H6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.8876070195082555</v>
+        <v>2.5988463175574297</v>
       </c>
       <c r="I6" s="1">
         <f>'[1]Pc, 2020, Summer'!I6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.4289086661074228</v>
+        <v>3.0860177994966804</v>
       </c>
       <c r="J6" s="1">
         <f>'[1]Pc, 2020, Summer'!J6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.8489776065321339</v>
+        <v>3.464079845878921</v>
       </c>
       <c r="K6" s="1">
         <f>'[1]Pc, 2020, Summer'!K6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.0120336279710296</v>
+        <v>3.6108302651739259</v>
       </c>
       <c r="L6" s="1">
         <f>'[1]Pc, 2020, Summer'!L6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.5327866496524649</v>
+        <v>3.1795079846872185</v>
       </c>
       <c r="M6" s="1">
         <f>'[1]Pc, 2020, Summer'!M6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.199712293470232</v>
+        <v>3.779741064123209</v>
       </c>
       <c r="N6" s="1">
         <f>'[1]Pc, 2020, Summer'!N6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.2591182436867809</v>
+        <v>3.8332064193181035</v>
       </c>
       <c r="O6" s="1">
         <f>'[1]Pc, 2020, Summer'!O6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.0280019665822042</v>
+        <v>3.6252017699239834</v>
       </c>
       <c r="P6" s="1">
         <f>'[1]Pc, 2020, Summer'!P6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.6468572794221537</v>
+        <v>3.2821715514799386</v>
       </c>
       <c r="Q6" s="1">
         <f>'[1]Pc, 2020, Summer'!Q6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.4784191599369652</v>
+        <v>3.1305772439432684</v>
       </c>
       <c r="R6" s="1">
         <f>'[1]Pc, 2020, Summer'!R6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.4594840123704627</v>
+        <v>3.1135356111334165</v>
       </c>
       <c r="S6" s="1">
         <f>'[1]Pc, 2020, Summer'!S6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.4043325693032953</v>
+        <v>3.0638993123729659</v>
       </c>
       <c r="T6" s="1">
         <f>'[1]Pc, 2020, Summer'!T6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.1883704644646378</v>
+        <v>2.869533418018174</v>
       </c>
       <c r="U6" s="1">
         <f>'[1]Pc, 2020, Summer'!U6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.4169329721097963</v>
+        <v>3.0752396748988171</v>
       </c>
       <c r="V6" s="1">
         <f>'[1]Pc, 2020, Summer'!V6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.6923815661128945</v>
+        <v>3.323143409501605</v>
       </c>
       <c r="W6" s="1">
         <f>'[1]Pc, 2020, Summer'!W6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.5379268529486341</v>
+        <v>3.1841341676537707</v>
       </c>
       <c r="X6" s="1">
         <f>'[1]Pc, 2020, Summer'!X6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.9592428859048616</v>
+        <v>2.6633185973143756</v>
       </c>
       <c r="Y6" s="1">
         <f>'[1]Pc, 2020, Summer'!Y6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.449096232054393</v>
+        <v>2.2041866088489535</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -13582,99 +13527,99 @@
       </c>
       <c r="B7" s="1">
         <f>'[1]Pc, 2020, Summer'!B7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.47850764761722353</v>
+        <v>0.43065688285550119</v>
       </c>
       <c r="C7" s="1">
         <f>'[1]Pc, 2020, Summer'!C7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.46225328934849164</v>
+        <v>0.41602796041364248</v>
       </c>
       <c r="D7" s="1">
         <f>'[1]Pc, 2020, Summer'!D7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.48610087721133588</v>
+        <v>0.43749078949020231</v>
       </c>
       <c r="E7" s="1">
         <f>'[1]Pc, 2020, Summer'!E7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.47826539200350388</v>
+        <v>0.43043885280315347</v>
       </c>
       <c r="F7" s="1">
         <f>'[1]Pc, 2020, Summer'!F7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.50421017391817891</v>
+        <v>0.45378915652636104</v>
       </c>
       <c r="G7" s="1">
         <f>'[1]Pc, 2020, Summer'!G7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.47162814400048225</v>
+        <v>0.42446532960043404</v>
       </c>
       <c r="H7" s="1">
         <f>'[1]Pc, 2020, Summer'!H7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.45030961266243608</v>
+        <v>0.40527865139619246</v>
       </c>
       <c r="I7" s="1">
         <f>'[1]Pc, 2020, Summer'!I7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.65074646961297322</v>
+        <v>0.58567182265167594</v>
       </c>
       <c r="J7" s="1">
         <f>'[1]Pc, 2020, Summer'!J7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.81778218190663454</v>
+        <v>0.73600396371597099</v>
       </c>
       <c r="K7" s="1">
         <f>'[1]Pc, 2020, Summer'!K7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.85804071795224468</v>
+        <v>0.77223664615702026</v>
       </c>
       <c r="L7" s="1">
         <f>'[1]Pc, 2020, Summer'!L7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.84107545424920016</v>
+        <v>0.75696790882428022</v>
       </c>
       <c r="M7" s="1">
         <f>'[1]Pc, 2020, Summer'!M7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.7690827601206961</v>
+        <v>0.69217448410862648</v>
       </c>
       <c r="N7" s="1">
         <f>'[1]Pc, 2020, Summer'!N7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.70389762087379804</v>
+        <v>0.63350785878641824</v>
       </c>
       <c r="O7" s="1">
         <f>'[1]Pc, 2020, Summer'!O7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.67790585203005504</v>
+        <v>0.61011526682704953</v>
       </c>
       <c r="P7" s="1">
         <f>'[1]Pc, 2020, Summer'!P7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.67919985496741497</v>
+        <v>0.61127986947067348</v>
       </c>
       <c r="Q7" s="1">
         <f>'[1]Pc, 2020, Summer'!Q7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.72689230555076623</v>
+        <v>0.65420307499568964</v>
       </c>
       <c r="R7" s="1">
         <f>'[1]Pc, 2020, Summer'!R7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.74216999271550232</v>
+        <v>0.66795299344395198</v>
       </c>
       <c r="S7" s="1">
         <f>'[1]Pc, 2020, Summer'!S7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.72819644999956434</v>
+        <v>0.65537680499960793</v>
       </c>
       <c r="T7" s="1">
         <f>'[1]Pc, 2020, Summer'!T7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.70476833910737435</v>
+        <v>0.63429150519663702</v>
       </c>
       <c r="U7" s="1">
         <f>'[1]Pc, 2020, Summer'!U7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.82636155216327589</v>
+        <v>0.74372539694694817</v>
       </c>
       <c r="V7" s="1">
         <f>'[1]Pc, 2020, Summer'!V7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.99709685879456855</v>
+        <v>0.89738717291511172</v>
       </c>
       <c r="W7" s="1">
         <f>'[1]Pc, 2020, Summer'!W7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0804368506665611</v>
+        <v>0.97239316559990507</v>
       </c>
       <c r="X7" s="1">
         <f>'[1]Pc, 2020, Summer'!X7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.90186148788853893</v>
+        <v>0.81167533909968503</v>
       </c>
       <c r="Y7" s="1">
         <f>'[1]Pc, 2020, Summer'!Y7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.57876000141848505</v>
+        <v>0.52088400127663659</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -13683,99 +13628,99 @@
       </c>
       <c r="B8" s="1">
         <f>'[1]Pc, 2020, Summer'!B8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.5533669384653318</v>
+        <v>0.49803024461879863</v>
       </c>
       <c r="C8" s="1">
         <f>'[1]Pc, 2020, Summer'!C8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.48206020870436028</v>
+        <v>0.43385418783392427</v>
       </c>
       <c r="D8" s="1">
         <f>'[1]Pc, 2020, Summer'!D8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.48206020870436028</v>
+        <v>0.43385418783392427</v>
       </c>
       <c r="E8" s="1">
         <f>'[1]Pc, 2020, Summer'!E8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.48206020870436028</v>
+        <v>0.43385418783392427</v>
       </c>
       <c r="F8" s="1">
         <f>'[1]Pc, 2020, Summer'!F8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.48206020870436028</v>
+        <v>0.43385418783392427</v>
       </c>
       <c r="G8" s="1">
         <f>'[1]Pc, 2020, Summer'!G8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.48206020870436028</v>
+        <v>0.43385418783392427</v>
       </c>
       <c r="H8" s="1">
         <f>'[1]Pc, 2020, Summer'!H8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.57990761817111081</v>
+        <v>0.52191685635399976</v>
       </c>
       <c r="I8" s="1">
         <f>'[1]Pc, 2020, Summer'!I8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.8417737336054687</v>
+        <v>0.75759636024492183</v>
       </c>
       <c r="J8" s="1">
         <f>'[1]Pc, 2020, Summer'!J8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.96392409516827948</v>
+        <v>0.86753168565145156</v>
       </c>
       <c r="K8" s="1">
         <f>'[1]Pc, 2020, Summer'!K8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.96892109368637058</v>
+        <v>0.87202898431773357</v>
       </c>
       <c r="L8" s="1">
         <f>'[1]Pc, 2020, Summer'!L8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.91502857512620139</v>
+        <v>0.82352571761358129</v>
       </c>
       <c r="M8" s="1">
         <f>'[1]Pc, 2020, Summer'!M8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.91637826719753634</v>
+        <v>0.82474044047778283</v>
       </c>
       <c r="N8" s="1">
         <f>'[1]Pc, 2020, Summer'!N8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.92517668165766909</v>
+        <v>0.8326590134919023</v>
       </c>
       <c r="O8" s="1">
         <f>'[1]Pc, 2020, Summer'!O8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.92517668165766909</v>
+        <v>0.8326590134919023</v>
       </c>
       <c r="P8" s="1">
         <f>'[1]Pc, 2020, Summer'!P8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.86188661136960365</v>
+        <v>0.77569795023264332</v>
       </c>
       <c r="Q8" s="1">
         <f>'[1]Pc, 2020, Summer'!Q8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.73253174911614061</v>
+        <v>0.65927857420452651</v>
       </c>
       <c r="R8" s="1">
         <f>'[1]Pc, 2020, Summer'!R8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.73253174911614061</v>
+        <v>0.65927857420452651</v>
       </c>
       <c r="S8" s="1">
         <f>'[1]Pc, 2020, Summer'!S8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.73253174911614061</v>
+        <v>0.65927857420452651</v>
       </c>
       <c r="T8" s="1">
         <f>'[1]Pc, 2020, Summer'!T8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.74694512648704336</v>
+        <v>0.67225061383833906</v>
       </c>
       <c r="U8" s="1">
         <f>'[1]Pc, 2020, Summer'!U8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.90144859771549735</v>
+        <v>0.81130373794394761</v>
       </c>
       <c r="V8" s="1">
         <f>'[1]Pc, 2020, Summer'!V8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.9794192669421099</v>
+        <v>0.88147734024789892</v>
       </c>
       <c r="W8" s="1">
         <f>'[1]Pc, 2020, Summer'!W8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.98730421949775837</v>
+        <v>0.88857379754798249</v>
       </c>
       <c r="X8" s="1">
         <f>'[1]Pc, 2020, Summer'!X8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.83975067835750083</v>
+        <v>0.75577561052175068</v>
       </c>
       <c r="Y8" s="1">
         <f>'[1]Pc, 2020, Summer'!Y8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.69733681788337565</v>
+        <v>0.62760313609503804</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -13784,99 +13729,99 @@
       </c>
       <c r="B9" s="1">
         <f>'[1]Pc, 2020, Summer'!B9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.77455272637897399</v>
+        <v>0.69709745374107668</v>
       </c>
       <c r="C9" s="1">
         <f>'[1]Pc, 2020, Summer'!C9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.70031955461126949</v>
+        <v>0.63028759915014265</v>
       </c>
       <c r="D9" s="1">
         <f>'[1]Pc, 2020, Summer'!D9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.68102056943379763</v>
+        <v>0.61291851249041795</v>
       </c>
       <c r="E9" s="1">
         <f>'[1]Pc, 2020, Summer'!E9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.67936515123421293</v>
+        <v>0.61142863611079168</v>
       </c>
       <c r="F9" s="1">
         <f>'[1]Pc, 2020, Summer'!F9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.67591796646531188</v>
+        <v>0.60832616981878074</v>
       </c>
       <c r="G9" s="1">
         <f>'[1]Pc, 2020, Summer'!G9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.68329567338689823</v>
+        <v>0.61496610604820856</v>
       </c>
       <c r="H9" s="1">
         <f>'[1]Pc, 2020, Summer'!H9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.69991428820020063</v>
+        <v>0.62992285938018056</v>
       </c>
       <c r="I9" s="1">
         <f>'[1]Pc, 2020, Summer'!I9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.75542812957180638</v>
+        <v>0.6798853166146257</v>
       </c>
       <c r="J9" s="1">
         <f>'[1]Pc, 2020, Summer'!J9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.86982346606538541</v>
+        <v>0.78284111945884693</v>
       </c>
       <c r="K9" s="1">
         <f>'[1]Pc, 2020, Summer'!K9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.95983586732790926</v>
+        <v>0.86385228059511832</v>
       </c>
       <c r="L9" s="1">
         <f>'[1]Pc, 2020, Summer'!L9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0345254195539024</v>
+        <v>0.93107287759851221</v>
       </c>
       <c r="M9" s="1">
         <f>'[1]Pc, 2020, Summer'!M9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0425702139438169</v>
+        <v>0.93831319254943513</v>
       </c>
       <c r="N9" s="1">
         <f>'[1]Pc, 2020, Summer'!N9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0490877838161536</v>
+        <v>0.94417900543453825</v>
       </c>
       <c r="O9" s="1">
         <f>'[1]Pc, 2020, Summer'!O9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.98225161065498379</v>
+        <v>0.8840264495894854</v>
       </c>
       <c r="P9" s="1">
         <f>'[1]Pc, 2020, Summer'!P9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.90435391883215133</v>
+        <v>0.81391852694893629</v>
       </c>
       <c r="Q9" s="1">
         <f>'[1]Pc, 2020, Summer'!Q9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.89520227698037824</v>
+        <v>0.80568204928234044</v>
       </c>
       <c r="R9" s="1">
         <f>'[1]Pc, 2020, Summer'!R9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.87109047059867539</v>
+        <v>0.78398142353880784</v>
       </c>
       <c r="S9" s="1">
         <f>'[1]Pc, 2020, Summer'!S9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.85268466845066893</v>
+        <v>0.76741620160560209</v>
       </c>
       <c r="T9" s="1">
         <f>'[1]Pc, 2020, Summer'!T9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.86059311447085152</v>
+        <v>0.77453380302376629</v>
       </c>
       <c r="U9" s="1">
         <f>'[1]Pc, 2020, Summer'!U9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.88033423221630913</v>
+        <v>0.79230080899467814</v>
       </c>
       <c r="V9" s="1">
         <f>'[1]Pc, 2020, Summer'!V9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0031455133834364</v>
+        <v>0.90283096204509283</v>
       </c>
       <c r="W9" s="1">
         <f>'[1]Pc, 2020, Summer'!W9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0528030321677591</v>
+        <v>0.94752272895098333</v>
       </c>
       <c r="X9" s="1">
         <f>'[1]Pc, 2020, Summer'!X9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.98061731749333547</v>
+        <v>0.88255558574400195</v>
       </c>
       <c r="Y9" s="1">
         <f>'[1]Pc, 2020, Summer'!Y9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.80562708063120281</v>
+        <v>0.72506437256808254</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -13885,99 +13830,99 @@
       </c>
       <c r="B10" s="1">
         <f>'[1]Pc, 2020, Summer'!B10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.61964219686503763</v>
+        <v>0.55767797717853385</v>
       </c>
       <c r="C10" s="1">
         <f>'[1]Pc, 2020, Summer'!C10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.56025563788201516</v>
+        <v>0.50423007409381371</v>
       </c>
       <c r="D10" s="1">
         <f>'[1]Pc, 2020, Summer'!D10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.54481644559218034</v>
+        <v>0.49033480103296223</v>
       </c>
       <c r="E10" s="1">
         <f>'[1]Pc, 2020, Summer'!E10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.54349209692979727</v>
+        <v>0.48914288723681754</v>
       </c>
       <c r="F10" s="1">
         <f>'[1]Pc, 2020, Summer'!F10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.54073431925010274</v>
+        <v>0.48666088732509249</v>
       </c>
       <c r="G10" s="1">
         <f>'[1]Pc, 2020, Summer'!G10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.54663652543637486</v>
+        <v>0.49197287289273739</v>
       </c>
       <c r="H10" s="1">
         <f>'[1]Pc, 2020, Summer'!H10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.55993144549244733</v>
+        <v>0.50393830094320258</v>
       </c>
       <c r="I10" s="1">
         <f>'[1]Pc, 2020, Summer'!I10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.60434252190801774</v>
+        <v>0.54390826971721595</v>
       </c>
       <c r="J10" s="1">
         <f>'[1]Pc, 2020, Summer'!J10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.69585874962430649</v>
+        <v>0.62627287466187587</v>
       </c>
       <c r="K10" s="1">
         <f>'[1]Pc, 2020, Summer'!K10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.76786866565689682</v>
+        <v>0.69108179909120715</v>
       </c>
       <c r="L10" s="1">
         <f>'[1]Pc, 2020, Summer'!L10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.82762032734740698</v>
+        <v>0.74485829461266628</v>
       </c>
       <c r="M10" s="1">
         <f>'[1]Pc, 2020, Summer'!M10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.83405615539319489</v>
+        <v>0.75065053985387542</v>
       </c>
       <c r="N10" s="1">
         <f>'[1]Pc, 2020, Summer'!N10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.83927023203035156</v>
+        <v>0.75534320882731654</v>
       </c>
       <c r="O10" s="1">
         <f>'[1]Pc, 2020, Summer'!O10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.78580129681970179</v>
+        <v>0.70722116713773164</v>
       </c>
       <c r="P10" s="1">
         <f>'[1]Pc, 2020, Summer'!P10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.72348313589529267</v>
+        <v>0.65113482230576347</v>
       </c>
       <c r="Q10" s="1">
         <f>'[1]Pc, 2020, Summer'!Q10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.7161618066520159</v>
+        <v>0.64454562598681431</v>
       </c>
       <c r="R10" s="1">
         <f>'[1]Pc, 2020, Summer'!R10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.69687239058165551</v>
+        <v>0.62718515152348997</v>
       </c>
       <c r="S10" s="1">
         <f>'[1]Pc, 2020, Summer'!S10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.68214772895353482</v>
+        <v>0.61393295605818132</v>
       </c>
       <c r="T10" s="1">
         <f>'[1]Pc, 2020, Summer'!T10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.68847447664439432</v>
+        <v>0.61962702897995481</v>
       </c>
       <c r="U10" s="1">
         <f>'[1]Pc, 2020, Summer'!U10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.70426738992090476</v>
+        <v>0.63384065092881425</v>
       </c>
       <c r="V10" s="1">
         <f>'[1]Pc, 2020, Summer'!V10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.80251643642346504</v>
+        <v>0.72226479278111855</v>
       </c>
       <c r="W10" s="1">
         <f>'[1]Pc, 2020, Summer'!W10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.84224240001749129</v>
+        <v>0.75801816001574218</v>
       </c>
       <c r="X10" s="1">
         <f>'[1]Pc, 2020, Summer'!X10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.78449385897209745</v>
+        <v>0.70604447307488771</v>
       </c>
       <c r="Y10" s="1">
         <f>'[1]Pc, 2020, Summer'!Y10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.64450165455010433</v>
+        <v>0.58005148909509396</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
@@ -13986,99 +13931,99 @@
       </c>
       <c r="B11" s="1">
         <f>'[1]Pc, 2020, Summer'!B11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.61964219686503763</v>
+        <v>0.55767797717853385</v>
       </c>
       <c r="C11" s="1">
         <f>'[1]Pc, 2020, Summer'!C11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.56025563788201516</v>
+        <v>0.50423007409381371</v>
       </c>
       <c r="D11" s="1">
         <f>'[1]Pc, 2020, Summer'!D11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.54481644559218034</v>
+        <v>0.49033480103296223</v>
       </c>
       <c r="E11" s="1">
         <f>'[1]Pc, 2020, Summer'!E11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.54349209692979727</v>
+        <v>0.48914288723681754</v>
       </c>
       <c r="F11" s="1">
         <f>'[1]Pc, 2020, Summer'!F11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.54073431925010274</v>
+        <v>0.48666088732509249</v>
       </c>
       <c r="G11" s="1">
         <f>'[1]Pc, 2020, Summer'!G11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.54663652543637486</v>
+        <v>0.49197287289273739</v>
       </c>
       <c r="H11" s="1">
         <f>'[1]Pc, 2020, Summer'!H11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.55993144549244733</v>
+        <v>0.50393830094320258</v>
       </c>
       <c r="I11" s="1">
         <f>'[1]Pc, 2020, Summer'!I11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.60434252190801774</v>
+        <v>0.54390826971721595</v>
       </c>
       <c r="J11" s="1">
         <f>'[1]Pc, 2020, Summer'!J11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.69585874962430649</v>
+        <v>0.62627287466187587</v>
       </c>
       <c r="K11" s="1">
         <f>'[1]Pc, 2020, Summer'!K11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.76786866565689682</v>
+        <v>0.69108179909120715</v>
       </c>
       <c r="L11" s="1">
         <f>'[1]Pc, 2020, Summer'!L11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.82762032734740698</v>
+        <v>0.74485829461266628</v>
       </c>
       <c r="M11" s="1">
         <f>'[1]Pc, 2020, Summer'!M11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.83405615539319489</v>
+        <v>0.75065053985387542</v>
       </c>
       <c r="N11" s="1">
         <f>'[1]Pc, 2020, Summer'!N11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.83927023203035156</v>
+        <v>0.75534320882731654</v>
       </c>
       <c r="O11" s="1">
         <f>'[1]Pc, 2020, Summer'!O11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.78580129681970179</v>
+        <v>0.70722116713773164</v>
       </c>
       <c r="P11" s="1">
         <f>'[1]Pc, 2020, Summer'!P11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.72348313589529267</v>
+        <v>0.65113482230576347</v>
       </c>
       <c r="Q11" s="1">
         <f>'[1]Pc, 2020, Summer'!Q11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.7161618066520159</v>
+        <v>0.64454562598681431</v>
       </c>
       <c r="R11" s="1">
         <f>'[1]Pc, 2020, Summer'!R11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.69687239058165551</v>
+        <v>0.62718515152348997</v>
       </c>
       <c r="S11" s="1">
         <f>'[1]Pc, 2020, Summer'!S11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.68214772895353482</v>
+        <v>0.61393295605818132</v>
       </c>
       <c r="T11" s="1">
         <f>'[1]Pc, 2020, Summer'!T11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.68847447664439432</v>
+        <v>0.61962702897995481</v>
       </c>
       <c r="U11" s="1">
         <f>'[1]Pc, 2020, Summer'!U11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.70426738992090476</v>
+        <v>0.63384065092881425</v>
       </c>
       <c r="V11" s="1">
         <f>'[1]Pc, 2020, Summer'!V11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.80251643642346504</v>
+        <v>0.72226479278111855</v>
       </c>
       <c r="W11" s="1">
         <f>'[1]Pc, 2020, Summer'!W11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.84224240001749129</v>
+        <v>0.75801816001574218</v>
       </c>
       <c r="X11" s="1">
         <f>'[1]Pc, 2020, Summer'!X11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.78449385897209745</v>
+        <v>0.70604447307488771</v>
       </c>
       <c r="Y11" s="1">
         <f>'[1]Pc, 2020, Summer'!Y11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.64450165455010433</v>
+        <v>0.58005148909509396</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -14087,99 +14032,99 @@
       </c>
       <c r="B12" s="1">
         <f>'[1]Pc, 2020, Summer'!B12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.0266375993912513</v>
+        <v>3.6239738394521264</v>
       </c>
       <c r="C12" s="1">
         <f>'[1]Pc, 2020, Summer'!C12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.5600262101538402</v>
+        <v>3.2040235891384565</v>
       </c>
       <c r="D12" s="1">
         <f>'[1]Pc, 2020, Summer'!D12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.3748500922225446</v>
+        <v>3.0373650830002905</v>
       </c>
       <c r="E12" s="1">
         <f>'[1]Pc, 2020, Summer'!E12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.20552146507594</v>
+        <v>2.8849693185683458</v>
       </c>
       <c r="F12" s="1">
         <f>'[1]Pc, 2020, Summer'!F12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.1945363416525865</v>
+        <v>2.8750827074873282</v>
       </c>
       <c r="G12" s="1">
         <f>'[1]Pc, 2020, Summer'!G12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.1857098171625906</v>
+        <v>2.8671388354463314</v>
       </c>
       <c r="H12" s="1">
         <f>'[1]Pc, 2020, Summer'!H12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.8580047628864502</v>
+        <v>3.4722042865978056</v>
       </c>
       <c r="I12" s="1">
         <f>'[1]Pc, 2020, Summer'!I12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.7050701712460432</v>
+        <v>4.2345631541214388</v>
       </c>
       <c r="J12" s="1">
         <f>'[1]Pc, 2020, Summer'!J12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.3354246454721022</v>
+        <v>4.8018821809248919</v>
       </c>
       <c r="K12" s="1">
         <f>'[1]Pc, 2020, Summer'!K12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.4665125945556925</v>
+        <v>4.9198613351001246</v>
       </c>
       <c r="L12" s="1">
         <f>'[1]Pc, 2020, Summer'!L12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.5513109316246334</v>
+        <v>4.9961798384621696</v>
       </c>
       <c r="M12" s="1">
         <f>'[1]Pc, 2020, Summer'!M12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.9134389409323616</v>
+        <v>5.3220950468391264</v>
       </c>
       <c r="N12" s="1">
         <f>'[1]Pc, 2020, Summer'!N12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.9470699391092152</v>
+        <v>5.3523629451982941</v>
       </c>
       <c r="O12" s="1">
         <f>'[1]Pc, 2020, Summer'!O12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.8454922992297895</v>
+        <v>5.2609430693068102</v>
       </c>
       <c r="P12" s="1">
         <f>'[1]Pc, 2020, Summer'!P12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.6710430466741251</v>
+        <v>5.1039387420067124</v>
       </c>
       <c r="Q12" s="1">
         <f>'[1]Pc, 2020, Summer'!Q12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.4065554894862329</v>
+        <v>4.8658999405376093</v>
       </c>
       <c r="R12" s="1">
         <f>'[1]Pc, 2020, Summer'!R12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.3573244409602072</v>
+        <v>4.8215919968641865</v>
       </c>
       <c r="S12" s="1">
         <f>'[1]Pc, 2020, Summer'!S12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.333509505031123</v>
+        <v>4.8001585545280108</v>
       </c>
       <c r="T12" s="1">
         <f>'[1]Pc, 2020, Summer'!T12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.4716938699362236</v>
+        <v>4.9245244829426014</v>
       </c>
       <c r="U12" s="1">
         <f>'[1]Pc, 2020, Summer'!U12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.720440648267755</v>
+        <v>5.1483965834409799</v>
       </c>
       <c r="V12" s="1">
         <f>'[1]Pc, 2020, Summer'!V12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.9358339781551006</v>
+        <v>5.3422505803395897</v>
       </c>
       <c r="W12" s="1">
         <f>'[1]Pc, 2020, Summer'!W12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.0618570573293278</v>
+        <v>5.4556713515963953</v>
       </c>
       <c r="X12" s="1">
         <f>'[1]Pc, 2020, Summer'!X12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.5928218095274875</v>
+        <v>5.0335396285747382</v>
       </c>
       <c r="Y12" s="1">
         <f>'[1]Pc, 2020, Summer'!Y12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.8405169129107453</v>
+        <v>4.3564652216196711</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -14188,99 +14133,99 @@
       </c>
       <c r="B13" s="1">
         <f>'[1]Pc, 2020, Summer'!B13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.7152532045989366</v>
+        <v>3.3437278841390428</v>
       </c>
       <c r="C13" s="1">
         <f>'[1]Pc, 2020, Summer'!C13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.338073454364741</v>
+        <v>3.0042661089282672</v>
       </c>
       <c r="D13" s="1">
         <f>'[1]Pc, 2020, Summer'!D13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.1272798660971319</v>
+        <v>2.8145518794874187</v>
       </c>
       <c r="E13" s="1">
         <f>'[1]Pc, 2020, Summer'!E13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.1013805239607004</v>
+        <v>2.7912424715646309</v>
       </c>
       <c r="F13" s="1">
         <f>'[1]Pc, 2020, Summer'!F13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.1509366400742138</v>
+        <v>2.8358429760667923</v>
       </c>
       <c r="G13" s="1">
         <f>'[1]Pc, 2020, Summer'!G13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.1843209734648905</v>
+        <v>2.8658888761184014</v>
       </c>
       <c r="H13" s="1">
         <f>'[1]Pc, 2020, Summer'!H13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.7115378235158927</v>
+        <v>3.3403840411643033</v>
       </c>
       <c r="I13" s="1">
         <f>'[1]Pc, 2020, Summer'!I13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.5082774103006047</v>
+        <v>4.057449669270544</v>
       </c>
       <c r="J13" s="1">
         <f>'[1]Pc, 2020, Summer'!J13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.0965964810156574</v>
+        <v>4.5869368329140912</v>
       </c>
       <c r="K13" s="1">
         <f>'[1]Pc, 2020, Summer'!K13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.4211388875335569</v>
+        <v>4.8790249987802019</v>
       </c>
       <c r="L13" s="1">
         <f>'[1]Pc, 2020, Summer'!L13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.6137133977514893</v>
+        <v>5.0523420579763405</v>
       </c>
       <c r="M13" s="1">
         <f>'[1]Pc, 2020, Summer'!M13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.0733096567296174</v>
+        <v>5.4659786910566561</v>
       </c>
       <c r="N13" s="1">
         <f>'[1]Pc, 2020, Summer'!N13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.1296242005012322</v>
+        <v>5.51666178045111</v>
       </c>
       <c r="O13" s="1">
         <f>'[1]Pc, 2020, Summer'!O13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.1269241900320894</v>
+        <v>5.5142317710288804</v>
       </c>
       <c r="P13" s="1">
         <f>'[1]Pc, 2020, Summer'!P13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.7838145674939483</v>
+        <v>5.2054331107445533</v>
       </c>
       <c r="Q13" s="1">
         <f>'[1]Pc, 2020, Summer'!Q13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.4681803567790173</v>
+        <v>4.9213623211011157</v>
       </c>
       <c r="R13" s="1">
         <f>'[1]Pc, 2020, Summer'!R13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.1341767994351093</v>
+        <v>4.6207591194915985</v>
       </c>
       <c r="S13" s="1">
         <f>'[1]Pc, 2020, Summer'!S13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.0446157265405125</v>
+        <v>4.5401541538864612</v>
       </c>
       <c r="T13" s="1">
         <f>'[1]Pc, 2020, Summer'!T13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.8666046673234824</v>
+        <v>4.379944200591134</v>
       </c>
       <c r="U13" s="1">
         <f>'[1]Pc, 2020, Summer'!U13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.870894605471106</v>
+        <v>4.3838051449239961</v>
       </c>
       <c r="V13" s="1">
         <f>'[1]Pc, 2020, Summer'!V13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.9254678745420071</v>
+        <v>4.4329210870878066</v>
       </c>
       <c r="W13" s="1">
         <f>'[1]Pc, 2020, Summer'!W13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.0679337823312753</v>
+        <v>4.5611404040981478</v>
       </c>
       <c r="X13" s="1">
         <f>'[1]Pc, 2020, Summer'!X13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.8105447273371844</v>
+        <v>4.3294902546034661</v>
       </c>
       <c r="Y13" s="1">
         <f>'[1]Pc, 2020, Summer'!Y13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.1384917302855921</v>
+        <v>3.7246425572570336</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -14289,99 +14234,99 @@
       </c>
       <c r="B14" s="1">
         <f>'[1]Pc, 2020, Summer'!B14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.8445892646146302</v>
+        <v>3.4601303381531672</v>
       </c>
       <c r="C14" s="1">
         <f>'[1]Pc, 2020, Summer'!C14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.4164254425596381</v>
+        <v>3.9747828983036744</v>
       </c>
       <c r="D14" s="1">
         <f>'[1]Pc, 2020, Summer'!D14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.8965125399431759</v>
+        <v>2.6068612859488582</v>
       </c>
       <c r="E14" s="1">
         <f>'[1]Pc, 2020, Summer'!E14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.936549632461904</v>
+        <v>3.5428946692157135</v>
       </c>
       <c r="F14" s="1">
         <f>'[1]Pc, 2020, Summer'!F14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.606865819769177</v>
+        <v>3.2461792377922598</v>
       </c>
       <c r="G14" s="1">
         <f>'[1]Pc, 2020, Summer'!G14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.5210390587789768</v>
+        <v>3.1689351529010787</v>
       </c>
       <c r="H14" s="1">
         <f>'[1]Pc, 2020, Summer'!H14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.2976933510515209</v>
+        <v>3.867924015946369</v>
       </c>
       <c r="I14" s="1">
         <f>'[1]Pc, 2020, Summer'!I14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.1867184000199309</v>
+        <v>3.7680465600179383</v>
       </c>
       <c r="J14" s="1">
         <f>'[1]Pc, 2020, Summer'!J14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.5908839116545304</v>
+        <v>4.1317955204890771</v>
       </c>
       <c r="K14" s="1">
         <f>'[1]Pc, 2020, Summer'!K14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.6757593283582572</v>
+        <v>4.2081833955224317</v>
       </c>
       <c r="L14" s="1">
         <f>'[1]Pc, 2020, Summer'!L14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.2278866358633289</v>
+        <v>3.8050979722769962</v>
       </c>
       <c r="M14" s="1">
         <f>'[1]Pc, 2020, Summer'!M14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.3446246324641153</v>
+        <v>3.910162169217704</v>
       </c>
       <c r="N14" s="1">
         <f>'[1]Pc, 2020, Summer'!N14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.5538246014601231</v>
+        <v>4.098442141314111</v>
       </c>
       <c r="O14" s="1">
         <f>'[1]Pc, 2020, Summer'!O14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.4671368614056117</v>
+        <v>4.0204231752650506</v>
       </c>
       <c r="P14" s="1">
         <f>'[1]Pc, 2020, Summer'!P14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.5775681610583989</v>
+        <v>4.1198113449525593</v>
       </c>
       <c r="Q14" s="1">
         <f>'[1]Pc, 2020, Summer'!Q14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.7672320782328717</v>
+        <v>4.2905088704095853</v>
       </c>
       <c r="R14" s="1">
         <f>'[1]Pc, 2020, Summer'!R14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.7688106158948251</v>
+        <v>4.2919295543053426</v>
       </c>
       <c r="S14" s="1">
         <f>'[1]Pc, 2020, Summer'!S14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.7254429662008732</v>
+        <v>4.2528986695807856</v>
       </c>
       <c r="T14" s="1">
         <f>'[1]Pc, 2020, Summer'!T14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.4036796822370476</v>
+        <v>3.9633117140133423</v>
       </c>
       <c r="U14" s="1">
         <f>'[1]Pc, 2020, Summer'!U14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.7373610837893896</v>
+        <v>4.2636249754104512</v>
       </c>
       <c r="V14" s="1">
         <f>'[1]Pc, 2020, Summer'!V14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.7807149335616437</v>
+        <v>4.302643440205479</v>
       </c>
       <c r="W14" s="1">
         <f>'[1]Pc, 2020, Summer'!W14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.449474707878541</v>
+        <v>4.004527237090687</v>
       </c>
       <c r="X14" s="1">
         <f>'[1]Pc, 2020, Summer'!X14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.967187047263661</v>
+        <v>3.5704683425372949</v>
       </c>
       <c r="Y14" s="1">
         <f>'[1]Pc, 2020, Summer'!Y14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.4034901707785217</v>
+        <v>3.9631411537006693</v>
       </c>
     </row>
   </sheetData>
@@ -20107,99 +20052,99 @@
       </c>
       <c r="B2" s="1">
         <f>'[1]Qc, 2020, Summer'!B2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.35557222937266475</v>
+        <v>0.32001500643539832</v>
       </c>
       <c r="C2" s="1">
         <f>'[1]Qc, 2020, Summer'!C2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.33689980294848509</v>
+        <v>0.30320982265363655</v>
       </c>
       <c r="D2" s="1">
         <f>'[1]Qc, 2020, Summer'!D2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.28119396140388964</v>
+        <v>0.25307456526350064</v>
       </c>
       <c r="E2" s="1">
         <f>'[1]Qc, 2020, Summer'!E2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.31859819497934416</v>
+        <v>0.28673837548140979</v>
       </c>
       <c r="F2" s="1">
         <f>'[1]Qc, 2020, Summer'!F2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.31244715882531188</v>
+        <v>0.28120244294278074</v>
       </c>
       <c r="G2" s="1">
         <f>'[1]Qc, 2020, Summer'!G2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.31379178636271365</v>
+        <v>0.28241260772644228</v>
       </c>
       <c r="H2" s="1">
         <f>'[1]Qc, 2020, Summer'!H2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.34620443022617764</v>
+        <v>0.3115839872035599</v>
       </c>
       <c r="I2" s="1">
         <f>'[1]Qc, 2020, Summer'!I2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.37417176135021285</v>
+        <v>0.33675458521519153</v>
       </c>
       <c r="J2" s="1">
         <f>'[1]Qc, 2020, Summer'!J2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.39010038837426708</v>
+        <v>0.35109034953684037</v>
       </c>
       <c r="K2" s="1">
         <f>'[1]Qc, 2020, Summer'!K2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.37907914540833632</v>
+        <v>0.34117123086750273</v>
       </c>
       <c r="L2" s="1">
         <f>'[1]Qc, 2020, Summer'!L2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.37414436889968627</v>
+        <v>0.33672993200971763</v>
       </c>
       <c r="M2" s="1">
         <f>'[1]Qc, 2020, Summer'!M2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.41143267815543821</v>
+        <v>0.37028941033989443</v>
       </c>
       <c r="N2" s="1">
         <f>'[1]Qc, 2020, Summer'!N2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.40108881349214121</v>
+        <v>0.36097993214292712</v>
       </c>
       <c r="O2" s="1">
         <f>'[1]Qc, 2020, Summer'!O2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.40115619128837898</v>
+        <v>0.36104057215954111</v>
       </c>
       <c r="P2" s="1">
         <f>'[1]Qc, 2020, Summer'!P2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.38987909603204363</v>
+        <v>0.35089118642883926</v>
       </c>
       <c r="Q2" s="1">
         <f>'[1]Qc, 2020, Summer'!Q2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.38452552694921655</v>
+        <v>0.34607297425429495</v>
       </c>
       <c r="R2" s="1">
         <f>'[1]Qc, 2020, Summer'!R2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.38575667325494722</v>
+        <v>0.34718100592945245</v>
       </c>
       <c r="S2" s="1">
         <f>'[1]Qc, 2020, Summer'!S2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.34618142620882142</v>
+        <v>0.31156328358793928</v>
       </c>
       <c r="T2" s="1">
         <f>'[1]Qc, 2020, Summer'!T2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.41757239480651981</v>
+        <v>0.37581515532586784</v>
       </c>
       <c r="U2" s="1">
         <f>'[1]Qc, 2020, Summer'!U2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.42358216737975524</v>
+        <v>0.38122395064177977</v>
       </c>
       <c r="V2" s="1">
         <f>'[1]Qc, 2020, Summer'!V2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.39636268250838347</v>
+        <v>0.35672641425754514</v>
       </c>
       <c r="W2" s="1">
         <f>'[1]Qc, 2020, Summer'!W2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.40516461435162437</v>
+        <v>0.36464815291646191</v>
       </c>
       <c r="X2" s="1">
         <f>'[1]Qc, 2020, Summer'!X2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.37515037779934768</v>
+        <v>0.33763534001941292</v>
       </c>
       <c r="Y2" s="1">
         <f>'[1]Qc, 2020, Summer'!Y2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.33085546213135392</v>
+        <v>0.2977699159182185</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -20208,99 +20153,99 @@
       </c>
       <c r="B3" s="1">
         <f>'[1]Qc, 2020, Summer'!B3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.29936727614244496</v>
+        <v>-0.26943054852820048</v>
       </c>
       <c r="C3" s="1">
         <f>'[1]Qc, 2020, Summer'!C3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.48740132591915586</v>
+        <v>-0.4386611933272403</v>
       </c>
       <c r="D3" s="1">
         <f>'[1]Qc, 2020, Summer'!D3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.25751054573847743</v>
+        <v>-0.23175949116462971</v>
       </c>
       <c r="E3" s="1">
         <f>'[1]Qc, 2020, Summer'!E3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.24600891036754416</v>
+        <v>-0.22140801933078977</v>
       </c>
       <c r="F3" s="1">
         <f>'[1]Qc, 2020, Summer'!F3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.38719196051239135</v>
+        <v>-0.34847276446115222</v>
       </c>
       <c r="G3" s="1">
         <f>'[1]Qc, 2020, Summer'!G3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.64470431471671219</v>
+        <v>-0.58023388324504099</v>
       </c>
       <c r="H3" s="1">
         <f>'[1]Qc, 2020, Summer'!H3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.52200209731308378</v>
+        <v>-0.46980188758177538</v>
       </c>
       <c r="I3" s="1">
         <f>'[1]Qc, 2020, Summer'!I3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.41807679086252131</v>
+        <v>-0.37626911177626921</v>
       </c>
       <c r="J3" s="1">
         <f>'[1]Qc, 2020, Summer'!J3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.36053382592751465</v>
+        <v>-0.32448044333476322</v>
       </c>
       <c r="K3" s="1">
         <f>'[1]Qc, 2020, Summer'!K3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.35056261307224451</v>
+        <v>-0.31550635176502007</v>
       </c>
       <c r="L3" s="1">
         <f>'[1]Qc, 2020, Summer'!L3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.37481097106869382</v>
+        <v>-0.33732987396182446</v>
       </c>
       <c r="M3" s="1">
         <f>'[1]Qc, 2020, Summer'!M3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.34020104950125563</v>
+        <v>-0.3061809445511301</v>
       </c>
       <c r="N3" s="1">
         <f>'[1]Qc, 2020, Summer'!N3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.35438132557980639</v>
+        <v>-0.31894319302182578</v>
       </c>
       <c r="O3" s="1">
         <f>'[1]Qc, 2020, Summer'!O3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.39046416376737453</v>
+        <v>-0.35141774739063708</v>
       </c>
       <c r="P3" s="1">
         <f>'[1]Qc, 2020, Summer'!P3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.44910064909828873</v>
+        <v>-0.40419058418845982</v>
       </c>
       <c r="Q3" s="1">
         <f>'[1]Qc, 2020, Summer'!Q3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.49670292940877525</v>
+        <v>-0.44703263646789776</v>
       </c>
       <c r="R3" s="1">
         <f>'[1]Qc, 2020, Summer'!R3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.52069093468949912</v>
+        <v>-0.46862184122054923</v>
       </c>
       <c r="S3" s="1">
         <f>'[1]Qc, 2020, Summer'!S3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.46042118071772414</v>
+        <v>-0.41437906264595176</v>
       </c>
       <c r="T3" s="1">
         <f>'[1]Qc, 2020, Summer'!T3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.40594989501767403</v>
+        <v>-0.36535490551590666</v>
       </c>
       <c r="U3" s="1">
         <f>'[1]Qc, 2020, Summer'!U3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.15511539634070184</v>
+        <v>-0.13960385670663167</v>
       </c>
       <c r="V3" s="1">
         <f>'[1]Qc, 2020, Summer'!V3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-6.957381714085574E-2</v>
+        <v>-6.2616435426770159E-2</v>
       </c>
       <c r="W3" s="1">
         <f>'[1]Qc, 2020, Summer'!W3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.21501577116396933</v>
+        <v>-0.19351419404757242</v>
       </c>
       <c r="X3" s="1">
         <f>'[1]Qc, 2020, Summer'!X3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.39141527577383189</v>
+        <v>-0.35227374819644869</v>
       </c>
       <c r="Y3" s="1">
         <f>'[1]Qc, 2020, Summer'!Y3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.52946857667957781</v>
+        <v>-0.47652171901161999</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -20309,99 +20254,99 @@
       </c>
       <c r="B4" s="1">
         <f>'[1]Qc, 2020, Summer'!B4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.3823899449010665E-2</v>
+        <v>-2.1441509504109595E-2</v>
       </c>
       <c r="C4" s="1">
         <f>'[1]Qc, 2020, Summer'!C4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-8.3000916969934016E-2</v>
+        <v>-7.4700825272940613E-2</v>
       </c>
       <c r="D4" s="1">
         <f>'[1]Qc, 2020, Summer'!D4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.28673798350888186</v>
+        <v>-0.25806418515799368</v>
       </c>
       <c r="E4" s="1">
         <f>'[1]Qc, 2020, Summer'!E4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.8099764930448535E-2</v>
+        <v>1.6289788437403682E-2</v>
       </c>
       <c r="F4" s="1">
         <f>'[1]Qc, 2020, Summer'!F4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.473889292699368E-2</v>
+        <v>1.3265003634294312E-2</v>
       </c>
       <c r="G4" s="1">
         <f>'[1]Qc, 2020, Summer'!G4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.4004552189593963E-2</v>
+        <v>4.8604096970634565E-2</v>
       </c>
       <c r="H4" s="1">
         <f>'[1]Qc, 2020, Summer'!H4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-5.5191386934304719E-2</v>
+        <v>-4.9672248240874246E-2</v>
       </c>
       <c r="I4" s="1">
         <f>'[1]Qc, 2020, Summer'!I4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.19037059179419671</v>
+        <v>-0.17133353261477705</v>
       </c>
       <c r="J4" s="1">
         <f>'[1]Qc, 2020, Summer'!J4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.22244078025178918</v>
+        <v>-0.20019670222661026</v>
       </c>
       <c r="K4" s="1">
         <f>'[1]Qc, 2020, Summer'!K4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.1481197858985305</v>
+        <v>-0.13330780730867745</v>
       </c>
       <c r="L4" s="1">
         <f>'[1]Qc, 2020, Summer'!L4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.15632371283908872</v>
+        <v>-0.14069134155517984</v>
       </c>
       <c r="M4" s="1">
         <f>'[1]Qc, 2020, Summer'!M4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.17568681974470876</v>
+        <v>-0.15811813777023789</v>
       </c>
       <c r="N4" s="1">
         <f>'[1]Qc, 2020, Summer'!N4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.13636160139714312</v>
+        <v>-0.12272544125742881</v>
       </c>
       <c r="O4" s="1">
         <f>'[1]Qc, 2020, Summer'!O4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.16112822588486969</v>
+        <v>-0.14501540329638271</v>
       </c>
       <c r="P4" s="1">
         <f>'[1]Qc, 2020, Summer'!P4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.27918551490982174</v>
+        <v>-0.25126696341883958</v>
       </c>
       <c r="Q4" s="1">
         <f>'[1]Qc, 2020, Summer'!Q4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-7.989542440113552E-2</v>
+        <v>-7.1905881961021975E-2</v>
       </c>
       <c r="R4" s="1">
         <f>'[1]Qc, 2020, Summer'!R4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-7.9638530998513951E-2</v>
+        <v>-7.1674677898662567E-2</v>
       </c>
       <c r="S4" s="1">
         <f>'[1]Qc, 2020, Summer'!S4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-8.7143303384884019E-2</v>
+        <v>-7.8428973046395623E-2</v>
       </c>
       <c r="T4" s="1">
         <f>'[1]Qc, 2020, Summer'!T4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-7.9411510465167423E-2</v>
+        <v>-7.1470359418650695E-2</v>
       </c>
       <c r="U4" s="1">
         <f>'[1]Qc, 2020, Summer'!U4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-5.1180728175899665E-2</v>
+        <v>-4.6062655358309702E-2</v>
       </c>
       <c r="V4" s="1">
         <f>'[1]Qc, 2020, Summer'!V4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-8.2687981865455298E-2</v>
+        <v>-7.4419183678909762E-2</v>
       </c>
       <c r="W4" s="1">
         <f>'[1]Qc, 2020, Summer'!W4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-7.1644050119333627E-2</v>
+        <v>-6.4479645107400271E-2</v>
       </c>
       <c r="X4" s="1">
         <f>'[1]Qc, 2020, Summer'!X4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.4319378625622128E-2</v>
+        <v>-1.2887440763059916E-2</v>
       </c>
       <c r="Y4" s="1">
         <f>'[1]Qc, 2020, Summer'!Y4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.522650057573249E-2</v>
+        <v>3.1703850518159243E-2</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -20410,99 +20355,99 @@
       </c>
       <c r="B5" s="1">
         <f>'[1]Qc, 2020, Summer'!B5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.41297105626166913</v>
+        <v>0.37167395063550224</v>
       </c>
       <c r="C5" s="1">
         <f>'[1]Qc, 2020, Summer'!C5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.35812896869801009</v>
+        <v>0.32231607182820909</v>
       </c>
       <c r="D5" s="1">
         <f>'[1]Qc, 2020, Summer'!D5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.12936296301904138</v>
+        <v>0.11642666671713726</v>
       </c>
       <c r="E5" s="1">
         <f>'[1]Qc, 2020, Summer'!E5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.10032630180368232</v>
+        <v>9.0293671623314101E-2</v>
       </c>
       <c r="F5" s="1">
         <f>'[1]Qc, 2020, Summer'!F5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.10032630180368232</v>
+        <v>9.0293671623314101E-2</v>
       </c>
       <c r="G5" s="1">
         <f>'[1]Qc, 2020, Summer'!G5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.10032630180368232</v>
+        <v>9.0293671623314101E-2</v>
       </c>
       <c r="H5" s="1">
         <f>'[1]Qc, 2020, Summer'!H5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.1348116715079449</v>
+        <v>0.12133050435715041</v>
       </c>
       <c r="I5" s="1">
         <f>'[1]Qc, 2020, Summer'!I5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.49048457767636694</v>
+        <v>0.44143611990873022</v>
       </c>
       <c r="J5" s="1">
         <f>'[1]Qc, 2020, Summer'!J5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.59378010248840707</v>
+        <v>0.53440209223956647</v>
       </c>
       <c r="K5" s="1">
         <f>'[1]Qc, 2020, Summer'!K5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.63462218815352545</v>
+        <v>0.57115996933817292</v>
       </c>
       <c r="L5" s="1">
         <f>'[1]Qc, 2020, Summer'!L5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.63462218815352545</v>
+        <v>0.57115996933817292</v>
       </c>
       <c r="M5" s="1">
         <f>'[1]Qc, 2020, Summer'!M5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.63462218815352545</v>
+        <v>0.57115996933817292</v>
       </c>
       <c r="N5" s="1">
         <f>'[1]Qc, 2020, Summer'!N5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.63462218815352545</v>
+        <v>0.57115996933817292</v>
       </c>
       <c r="O5" s="1">
         <f>'[1]Qc, 2020, Summer'!O5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.63462218815352545</v>
+        <v>0.57115996933817292</v>
       </c>
       <c r="P5" s="1">
         <f>'[1]Qc, 2020, Summer'!P5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.63462218815352545</v>
+        <v>0.57115996933817292</v>
       </c>
       <c r="Q5" s="1">
         <f>'[1]Qc, 2020, Summer'!Q5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.63462218815352545</v>
+        <v>0.57115996933817292</v>
       </c>
       <c r="R5" s="1">
         <f>'[1]Qc, 2020, Summer'!R5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.63462218815352545</v>
+        <v>0.57115996933817292</v>
       </c>
       <c r="S5" s="1">
         <f>'[1]Qc, 2020, Summer'!S5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.63462218815352545</v>
+        <v>0.57115996933817292</v>
       </c>
       <c r="T5" s="1">
         <f>'[1]Qc, 2020, Summer'!T5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.63462218815352545</v>
+        <v>0.57115996933817292</v>
       </c>
       <c r="U5" s="1">
         <f>'[1]Qc, 2020, Summer'!U5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.63462218815352545</v>
+        <v>0.57115996933817292</v>
       </c>
       <c r="V5" s="1">
         <f>'[1]Qc, 2020, Summer'!V5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.63462218815352545</v>
+        <v>0.57115996933817292</v>
       </c>
       <c r="W5" s="1">
         <f>'[1]Qc, 2020, Summer'!W5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.63462218815352545</v>
+        <v>0.57115996933817292</v>
       </c>
       <c r="X5" s="1">
         <f>'[1]Qc, 2020, Summer'!X5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.63462218815352545</v>
+        <v>0.57115996933817292</v>
       </c>
       <c r="Y5" s="1">
         <f>'[1]Qc, 2020, Summer'!Y5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.56886678072663865</v>
+        <v>0.51198010265397487</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -20511,99 +20456,99 @@
       </c>
       <c r="B6" s="1">
         <f>'[1]Qc, 2020, Summer'!B6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.70288909837252866</v>
+        <v>0.63260018853527589</v>
       </c>
       <c r="C6" s="1">
         <f>'[1]Qc, 2020, Summer'!C6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.62333167043051796</v>
+        <v>0.56099850338746615</v>
       </c>
       <c r="D6" s="1">
         <f>'[1]Qc, 2020, Summer'!D6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.58240899604321894</v>
+        <v>0.52416809643889706</v>
       </c>
       <c r="E6" s="1">
         <f>'[1]Qc, 2020, Summer'!E6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.56473601246037497</v>
+        <v>0.50826241121433746</v>
       </c>
       <c r="F6" s="1">
         <f>'[1]Qc, 2020, Summer'!F6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.57389021768804516</v>
+        <v>0.51650119591924071</v>
       </c>
       <c r="G6" s="1">
         <f>'[1]Qc, 2020, Summer'!G6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.57451750646424682</v>
+        <v>0.5170657558178221</v>
       </c>
       <c r="H6" s="1">
         <f>'[1]Qc, 2020, Summer'!H6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.86628210419333362</v>
+        <v>0.7796538937740003</v>
       </c>
       <c r="I6" s="1">
         <f>'[1]Qc, 2020, Summer'!I6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0286726019061556</v>
+        <v>0.92580534171553996</v>
       </c>
       <c r="J6" s="1">
         <f>'[1]Qc, 2020, Summer'!J6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1546932836187833</v>
+        <v>1.0392239552569049</v>
       </c>
       <c r="K6" s="1">
         <f>'[1]Qc, 2020, Summer'!K6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2036100863173802</v>
+        <v>1.0832490776856423</v>
       </c>
       <c r="L6" s="1">
         <f>'[1]Qc, 2020, Summer'!L6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0598359899183105</v>
+        <v>0.95385239092647955</v>
       </c>
       <c r="M6" s="1">
         <f>'[1]Qc, 2020, Summer'!M6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2599136631539252</v>
+        <v>1.1339222968385327</v>
       </c>
       <c r="N6" s="1">
         <f>'[1]Qc, 2020, Summer'!N6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2777354801573919</v>
+        <v>1.1499619321416528</v>
       </c>
       <c r="O6" s="1">
         <f>'[1]Qc, 2020, Summer'!O6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2084005879007322</v>
+        <v>1.0875605291106591</v>
       </c>
       <c r="P6" s="1">
         <f>'[1]Qc, 2020, Summer'!P6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0940571825822889</v>
+        <v>0.98465146432406003</v>
       </c>
       <c r="Q6" s="1">
         <f>'[1]Qc, 2020, Summer'!Q6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0435257517141614</v>
+        <v>0.93917317654274524</v>
       </c>
       <c r="R6" s="1">
         <f>'[1]Qc, 2020, Summer'!R6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0378451945858527</v>
+        <v>0.93406067512726743</v>
       </c>
       <c r="S6" s="1">
         <f>'[1]Qc, 2020, Summer'!S6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.021299760421345</v>
+        <v>0.91916978437921049</v>
       </c>
       <c r="T6" s="1">
         <f>'[1]Qc, 2020, Summer'!T6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.95651113975417723</v>
+        <v>0.86086002577875953</v>
       </c>
       <c r="U6" s="1">
         <f>'[1]Qc, 2020, Summer'!U6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0250798771154379</v>
+        <v>0.92257188940389412</v>
       </c>
       <c r="V6" s="1">
         <f>'[1]Qc, 2020, Summer'!V6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1077144594642245</v>
+        <v>0.99694301351780212</v>
       </c>
       <c r="W6" s="1">
         <f>'[1]Qc, 2020, Summer'!W6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0613780637655195</v>
+        <v>0.95524025738896756</v>
       </c>
       <c r="X6" s="1">
         <f>'[1]Qc, 2020, Summer'!X6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.88777287116367321</v>
+        <v>0.79899558404730597</v>
       </c>
       <c r="Y6" s="1">
         <f>'[1]Qc, 2020, Summer'!Y6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.73472886505367485</v>
+        <v>0.66125597854830742</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -20612,99 +20557,99 @@
       </c>
       <c r="B7" s="1">
         <f>'[1]Qc, 2020, Summer'!B7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.28710461262790732</v>
+        <v>0.25839415136511656</v>
       </c>
       <c r="C7" s="1">
         <f>'[1]Qc, 2020, Summer'!C7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.27735197941609541</v>
+        <v>0.24961678147448588</v>
       </c>
       <c r="D7" s="1">
         <f>'[1]Qc, 2020, Summer'!D7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.29166048650737009</v>
+        <v>0.26249443785663307</v>
       </c>
       <c r="E7" s="1">
         <f>'[1]Qc, 2020, Summer'!E7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.28695922192895851</v>
+        <v>0.25826329973606271</v>
       </c>
       <c r="F7" s="1">
         <f>'[1]Qc, 2020, Summer'!F7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.30252610601005037</v>
+        <v>0.27227349540904533</v>
       </c>
       <c r="G7" s="1">
         <f>'[1]Qc, 2020, Summer'!G7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.28297690548043358</v>
+        <v>0.25467921493239021</v>
       </c>
       <c r="H7" s="1">
         <f>'[1]Qc, 2020, Summer'!H7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.27018579663246367</v>
+        <v>0.24316721696921734</v>
       </c>
       <c r="I7" s="1">
         <f>'[1]Qc, 2020, Summer'!I7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.39044791246192895</v>
+        <v>0.35140312121573603</v>
       </c>
       <c r="J7" s="1">
         <f>'[1]Qc, 2020, Summer'!J7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.4906693108031237</v>
+        <v>0.44160237972281136</v>
       </c>
       <c r="K7" s="1">
         <f>'[1]Qc, 2020, Summer'!K7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.51482443740791872</v>
+        <v>0.46334199366712686</v>
       </c>
       <c r="L7" s="1">
         <f>'[1]Qc, 2020, Summer'!L7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.50464528831137834</v>
+        <v>0.4541807594802405</v>
       </c>
       <c r="M7" s="1">
         <f>'[1]Qc, 2020, Summer'!M7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.46144967100470446</v>
+        <v>0.41530470390423402</v>
       </c>
       <c r="N7" s="1">
         <f>'[1]Qc, 2020, Summer'!N7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.42233856920599283</v>
+        <v>0.38010471228539355</v>
       </c>
       <c r="O7" s="1">
         <f>'[1]Qc, 2020, Summer'!O7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.40674350872931858</v>
+        <v>0.36606915785638672</v>
       </c>
       <c r="P7" s="1">
         <f>'[1]Qc, 2020, Summer'!P7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.40751991298044887</v>
+        <v>0.36676792168240402</v>
       </c>
       <c r="Q7" s="1">
         <f>'[1]Qc, 2020, Summer'!Q7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.43613537586431633</v>
+        <v>0.39252183827788467</v>
       </c>
       <c r="R7" s="1">
         <f>'[1]Qc, 2020, Summer'!R7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.44530200807287357</v>
+        <v>0.4007718072655862</v>
       </c>
       <c r="S7" s="1">
         <f>'[1]Qc, 2020, Summer'!S7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.43691785672659472</v>
+        <v>0.39322607105393526</v>
       </c>
       <c r="T7" s="1">
         <f>'[1]Qc, 2020, Summer'!T7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.42286102503328332</v>
+        <v>0.38057492252995501</v>
       </c>
       <c r="U7" s="1">
         <f>'[1]Qc, 2020, Summer'!U7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.49581693876410893</v>
+        <v>0.44623524488769806</v>
       </c>
       <c r="V7" s="1">
         <f>'[1]Qc, 2020, Summer'!V7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.59825810449231187</v>
+        <v>0.53843229404308068</v>
       </c>
       <c r="W7" s="1">
         <f>'[1]Qc, 2020, Summer'!W7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.64826209380850708</v>
+        <v>0.58343588442765637</v>
       </c>
       <c r="X7" s="1">
         <f>'[1]Qc, 2020, Summer'!X7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.54111690517669564</v>
+        <v>0.48700521465902608</v>
       </c>
       <c r="Y7" s="1">
         <f>'[1]Qc, 2020, Summer'!Y7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.34725600748766283</v>
+        <v>0.31253040673889654</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -20713,99 +20658,99 @@
       </c>
       <c r="B8" s="1">
         <f>'[1]Qc, 2020, Summer'!B8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.16601006328902682</v>
+        <v>0.14940905696012416</v>
       </c>
       <c r="C8" s="1">
         <f>'[1]Qc, 2020, Summer'!C8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.14461801947359071</v>
+        <v>0.13015621752623166</v>
       </c>
       <c r="D8" s="1">
         <f>'[1]Qc, 2020, Summer'!D8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.14461801947359071</v>
+        <v>0.13015621752623166</v>
       </c>
       <c r="E8" s="1">
         <f>'[1]Qc, 2020, Summer'!E8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.14461801947359071</v>
+        <v>0.13015621752623166</v>
       </c>
       <c r="F8" s="1">
         <f>'[1]Qc, 2020, Summer'!F8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.14461801947359071</v>
+        <v>0.13015621752623166</v>
       </c>
       <c r="G8" s="1">
         <f>'[1]Qc, 2020, Summer'!G8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.14461801947359071</v>
+        <v>0.13015621752623166</v>
       </c>
       <c r="H8" s="1">
         <f>'[1]Qc, 2020, Summer'!H8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.17397225309804523</v>
+        <v>0.1565750277882407</v>
       </c>
       <c r="I8" s="1">
         <f>'[1]Qc, 2020, Summer'!I8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.25253212962171268</v>
+        <v>0.22727891665954142</v>
       </c>
       <c r="J8" s="1">
         <f>'[1]Qc, 2020, Summer'!J8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.2891772596594146</v>
+        <v>0.26025953369347316</v>
       </c>
       <c r="K8" s="1">
         <f>'[1]Qc, 2020, Summer'!K8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.29067634925998409</v>
+        <v>0.26160871433398569</v>
       </c>
       <c r="L8" s="1">
         <f>'[1]Qc, 2020, Summer'!L8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.27450856921957451</v>
+        <v>0.24705771229761705</v>
       </c>
       <c r="M8" s="1">
         <f>'[1]Qc, 2020, Summer'!M8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.27491350380204832</v>
+        <v>0.24742215342184348</v>
       </c>
       <c r="N8" s="1">
         <f>'[1]Qc, 2020, Summer'!N8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.27755303436187428</v>
+        <v>0.24979773092568688</v>
       </c>
       <c r="O8" s="1">
         <f>'[1]Qc, 2020, Summer'!O8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.27755303436187428</v>
+        <v>0.24979773092568688</v>
       </c>
       <c r="P8" s="1">
         <f>'[1]Qc, 2020, Summer'!P8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.25856601783809791</v>
+        <v>0.2327094160542881</v>
       </c>
       <c r="Q8" s="1">
         <f>'[1]Qc, 2020, Summer'!Q8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.21975955957684462</v>
+        <v>0.19778360361916017</v>
       </c>
       <c r="R8" s="1">
         <f>'[1]Qc, 2020, Summer'!R8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.21975955957684462</v>
+        <v>0.19778360361916017</v>
       </c>
       <c r="S8" s="1">
         <f>'[1]Qc, 2020, Summer'!S8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.21975955957684462</v>
+        <v>0.19778360361916017</v>
       </c>
       <c r="T8" s="1">
         <f>'[1]Qc, 2020, Summer'!T8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.22408356822547229</v>
+        <v>0.20167521140292505</v>
       </c>
       <c r="U8" s="1">
         <f>'[1]Qc, 2020, Summer'!U8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.27043455608664757</v>
+        <v>0.24339110047798282</v>
       </c>
       <c r="V8" s="1">
         <f>'[1]Qc, 2020, Summer'!V8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.29382573445620119</v>
+        <v>0.26444316101058107</v>
       </c>
       <c r="W8" s="1">
         <f>'[1]Qc, 2020, Summer'!W8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.29619122022289568</v>
+        <v>0.26657209820060612</v>
       </c>
       <c r="X8" s="1">
         <f>'[1]Qc, 2020, Summer'!X8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.25192519852982137</v>
+        <v>0.22673267867683922</v>
       </c>
       <c r="Y8" s="1">
         <f>'[1]Qc, 2020, Summer'!Y8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.20920106817822862</v>
+        <v>0.18828096136040576</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -20814,99 +20759,99 @@
       </c>
       <c r="B9" s="1">
         <f>'[1]Qc, 2020, Summer'!B9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.77455272637897399</v>
+        <v>0.69709745374107668</v>
       </c>
       <c r="C9" s="1">
         <f>'[1]Qc, 2020, Summer'!C9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.70031955461126949</v>
+        <v>0.63028759915014265</v>
       </c>
       <c r="D9" s="1">
         <f>'[1]Qc, 2020, Summer'!D9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.68102056943379763</v>
+        <v>0.61291851249041795</v>
       </c>
       <c r="E9" s="1">
         <f>'[1]Qc, 2020, Summer'!E9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.67936515123421293</v>
+        <v>0.61142863611079168</v>
       </c>
       <c r="F9" s="1">
         <f>'[1]Qc, 2020, Summer'!F9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.67591796646531188</v>
+        <v>0.60832616981878074</v>
       </c>
       <c r="G9" s="1">
         <f>'[1]Qc, 2020, Summer'!G9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.68329567338689823</v>
+        <v>0.61496610604820856</v>
       </c>
       <c r="H9" s="1">
         <f>'[1]Qc, 2020, Summer'!H9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.69991428820020063</v>
+        <v>0.62992285938018056</v>
       </c>
       <c r="I9" s="1">
         <f>'[1]Qc, 2020, Summer'!I9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.75542812957180638</v>
+        <v>0.6798853166146257</v>
       </c>
       <c r="J9" s="1">
         <f>'[1]Qc, 2020, Summer'!J9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.86982346606538541</v>
+        <v>0.78284111945884693</v>
       </c>
       <c r="K9" s="1">
         <f>'[1]Qc, 2020, Summer'!K9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.95983586732790926</v>
+        <v>0.86385228059511832</v>
       </c>
       <c r="L9" s="1">
         <f>'[1]Qc, 2020, Summer'!L9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0345254195539024</v>
+        <v>0.93107287759851221</v>
       </c>
       <c r="M9" s="1">
         <f>'[1]Qc, 2020, Summer'!M9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0425702139438169</v>
+        <v>0.93831319254943513</v>
       </c>
       <c r="N9" s="1">
         <f>'[1]Qc, 2020, Summer'!N9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0490877838161536</v>
+        <v>0.94417900543453825</v>
       </c>
       <c r="O9" s="1">
         <f>'[1]Qc, 2020, Summer'!O9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.98225161065498379</v>
+        <v>0.8840264495894854</v>
       </c>
       <c r="P9" s="1">
         <f>'[1]Qc, 2020, Summer'!P9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.90435391883215133</v>
+        <v>0.81391852694893629</v>
       </c>
       <c r="Q9" s="1">
         <f>'[1]Qc, 2020, Summer'!Q9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.89520227698037824</v>
+        <v>0.80568204928234044</v>
       </c>
       <c r="R9" s="1">
         <f>'[1]Qc, 2020, Summer'!R9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.87109047059867539</v>
+        <v>0.78398142353880784</v>
       </c>
       <c r="S9" s="1">
         <f>'[1]Qc, 2020, Summer'!S9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.85268466845066893</v>
+        <v>0.76741620160560209</v>
       </c>
       <c r="T9" s="1">
         <f>'[1]Qc, 2020, Summer'!T9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.86059311447085152</v>
+        <v>0.77453380302376629</v>
       </c>
       <c r="U9" s="1">
         <f>'[1]Qc, 2020, Summer'!U9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.88033423221630913</v>
+        <v>0.79230080899467814</v>
       </c>
       <c r="V9" s="1">
         <f>'[1]Qc, 2020, Summer'!V9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0031455133834364</v>
+        <v>0.90283096204509283</v>
       </c>
       <c r="W9" s="1">
         <f>'[1]Qc, 2020, Summer'!W9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0528030321677591</v>
+        <v>0.94752272895098333</v>
       </c>
       <c r="X9" s="1">
         <f>'[1]Qc, 2020, Summer'!X9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.98061731749333547</v>
+        <v>0.88255558574400195</v>
       </c>
       <c r="Y9" s="1">
         <f>'[1]Qc, 2020, Summer'!Y9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.80562708063120281</v>
+        <v>0.72506437256808254</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -20915,99 +20860,99 @@
       </c>
       <c r="B10" s="1">
         <f>'[1]Qc, 2020, Summer'!B10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.20003572595333477</v>
+        <v>-0.1800321533580013</v>
       </c>
       <c r="C10" s="1">
         <f>'[1]Qc, 2020, Summer'!C10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.19340671559518682</v>
+        <v>-0.17406604403566814</v>
       </c>
       <c r="D10" s="1">
         <f>'[1]Qc, 2020, Summer'!D10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.18952518793456999</v>
+        <v>-0.17057266914111296</v>
       </c>
       <c r="E10" s="1">
         <f>'[1]Qc, 2020, Summer'!E10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.19284813607746087</v>
+        <v>-0.17356332246971476</v>
       </c>
       <c r="F10" s="1">
         <f>'[1]Qc, 2020, Summer'!F10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.18180877527023689</v>
+        <v>-0.16362789774321321</v>
       </c>
       <c r="G10" s="1">
         <f>'[1]Qc, 2020, Summer'!G10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.17941223864275468</v>
+        <v>-0.16147101477847922</v>
       </c>
       <c r="H10" s="1">
         <f>'[1]Qc, 2020, Summer'!H10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.22905845866341398</v>
+        <v>-0.20615261279707259</v>
       </c>
       <c r="I10" s="1">
         <f>'[1]Qc, 2020, Summer'!I10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.19828474941407248</v>
+        <v>-0.17845627447266524</v>
       </c>
       <c r="J10" s="1">
         <f>'[1]Qc, 2020, Summer'!J10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.16376521795594307</v>
+        <v>-0.14738869616034875</v>
       </c>
       <c r="K10" s="1">
         <f>'[1]Qc, 2020, Summer'!K10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.11569517546635538</v>
+        <v>-0.10412565791971985</v>
       </c>
       <c r="L10" s="1">
         <f>'[1]Qc, 2020, Summer'!L10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.13260795218136795</v>
+        <v>-0.11934715696323116</v>
       </c>
       <c r="M10" s="1">
         <f>'[1]Qc, 2020, Summer'!M10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.13091217118104523</v>
+        <v>-0.1178209540629407</v>
       </c>
       <c r="N10" s="1">
         <f>'[1]Qc, 2020, Summer'!N10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.13030782835219576</v>
+        <v>-0.11727704551697619</v>
       </c>
       <c r="O10" s="1">
         <f>'[1]Qc, 2020, Summer'!O10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.12489834615109208</v>
+        <v>-0.11240851153598287</v>
       </c>
       <c r="P10" s="1">
         <f>'[1]Qc, 2020, Summer'!P10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.17166114989023226</v>
+        <v>-0.15449503490120906</v>
       </c>
       <c r="Q10" s="1">
         <f>'[1]Qc, 2020, Summer'!Q10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.16627183457199654</v>
+        <v>-0.14964465111479691</v>
       </c>
       <c r="R10" s="1">
         <f>'[1]Qc, 2020, Summer'!R10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.17031363129619551</v>
+        <v>-0.15328226816657597</v>
       </c>
       <c r="S10" s="1">
         <f>'[1]Qc, 2020, Summer'!S10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.17805408909010201</v>
+        <v>-0.16024868018109181</v>
       </c>
       <c r="T10" s="1">
         <f>'[1]Qc, 2020, Summer'!T10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.18455391028045759</v>
+        <v>-0.16609851925241184</v>
       </c>
       <c r="U10" s="1">
         <f>'[1]Qc, 2020, Summer'!U10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.20229200278152018</v>
+        <v>-0.18206280250336818</v>
       </c>
       <c r="V10" s="1">
         <f>'[1]Qc, 2020, Summer'!V10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.18348665826571067</v>
+        <v>-0.1651379924391396</v>
       </c>
       <c r="W10" s="1">
         <f>'[1]Qc, 2020, Summer'!W10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.14125797704162366</v>
+        <v>-0.12713217933746129</v>
       </c>
       <c r="X10" s="1">
         <f>'[1]Qc, 2020, Summer'!X10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.15387219636125371</v>
+        <v>-0.13848497672512836</v>
       </c>
       <c r="Y10" s="1">
         <f>'[1]Qc, 2020, Summer'!Y10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.16820619618434801</v>
+        <v>-0.15138557656591323</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
@@ -21016,99 +20961,99 @@
       </c>
       <c r="B11" s="1">
         <f>'[1]Qc, 2020, Summer'!B11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.20003572595333477</v>
+        <v>-0.1800321533580013</v>
       </c>
       <c r="C11" s="1">
         <f>'[1]Qc, 2020, Summer'!C11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.19340671559518682</v>
+        <v>-0.17406604403566814</v>
       </c>
       <c r="D11" s="1">
         <f>'[1]Qc, 2020, Summer'!D11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.18952518793456999</v>
+        <v>-0.17057266914111296</v>
       </c>
       <c r="E11" s="1">
         <f>'[1]Qc, 2020, Summer'!E11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.19284813607746087</v>
+        <v>-0.17356332246971476</v>
       </c>
       <c r="F11" s="1">
         <f>'[1]Qc, 2020, Summer'!F11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.18180877527023689</v>
+        <v>-0.16362789774321321</v>
       </c>
       <c r="G11" s="1">
         <f>'[1]Qc, 2020, Summer'!G11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.17941223864275468</v>
+        <v>-0.16147101477847922</v>
       </c>
       <c r="H11" s="1">
         <f>'[1]Qc, 2020, Summer'!H11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.22905845866341398</v>
+        <v>-0.20615261279707259</v>
       </c>
       <c r="I11" s="1">
         <f>'[1]Qc, 2020, Summer'!I11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.19828474941407248</v>
+        <v>-0.17845627447266524</v>
       </c>
       <c r="J11" s="1">
         <f>'[1]Qc, 2020, Summer'!J11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.16376521795594307</v>
+        <v>-0.14738869616034875</v>
       </c>
       <c r="K11" s="1">
         <f>'[1]Qc, 2020, Summer'!K11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.11569517546635538</v>
+        <v>-0.10412565791971985</v>
       </c>
       <c r="L11" s="1">
         <f>'[1]Qc, 2020, Summer'!L11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.13260795218136795</v>
+        <v>-0.11934715696323116</v>
       </c>
       <c r="M11" s="1">
         <f>'[1]Qc, 2020, Summer'!M11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.13091217118104523</v>
+        <v>-0.1178209540629407</v>
       </c>
       <c r="N11" s="1">
         <f>'[1]Qc, 2020, Summer'!N11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.13030782835219576</v>
+        <v>-0.11727704551697619</v>
       </c>
       <c r="O11" s="1">
         <f>'[1]Qc, 2020, Summer'!O11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.12489834615109208</v>
+        <v>-0.11240851153598287</v>
       </c>
       <c r="P11" s="1">
         <f>'[1]Qc, 2020, Summer'!P11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.17166114989023226</v>
+        <v>-0.15449503490120906</v>
       </c>
       <c r="Q11" s="1">
         <f>'[1]Qc, 2020, Summer'!Q11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.16627183457199654</v>
+        <v>-0.14964465111479691</v>
       </c>
       <c r="R11" s="1">
         <f>'[1]Qc, 2020, Summer'!R11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.17031363129619551</v>
+        <v>-0.15328226816657597</v>
       </c>
       <c r="S11" s="1">
         <f>'[1]Qc, 2020, Summer'!S11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.17805408909010201</v>
+        <v>-0.16024868018109181</v>
       </c>
       <c r="T11" s="1">
         <f>'[1]Qc, 2020, Summer'!T11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.18455391028045759</v>
+        <v>-0.16609851925241184</v>
       </c>
       <c r="U11" s="1">
         <f>'[1]Qc, 2020, Summer'!U11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.20229200278152018</v>
+        <v>-0.18206280250336818</v>
       </c>
       <c r="V11" s="1">
         <f>'[1]Qc, 2020, Summer'!V11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.18348665826571067</v>
+        <v>-0.1651379924391396</v>
       </c>
       <c r="W11" s="1">
         <f>'[1]Qc, 2020, Summer'!W11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.14125797704162366</v>
+        <v>-0.12713217933746129</v>
       </c>
       <c r="X11" s="1">
         <f>'[1]Qc, 2020, Summer'!X11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.15387219636125371</v>
+        <v>-0.13848497672512836</v>
       </c>
       <c r="Y11" s="1">
         <f>'[1]Qc, 2020, Summer'!Y11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.16820619618434801</v>
+        <v>-0.15138557656591323</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -21117,99 +21062,99 @@
       </c>
       <c r="B12" s="1">
         <f>'[1]Qc, 2020, Summer'!B12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3367238863048534</v>
+        <v>1.203051497674368</v>
       </c>
       <c r="C12" s="1">
         <f>'[1]Qc, 2020, Summer'!C12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1944959701318569</v>
+        <v>1.0750463731186712</v>
       </c>
       <c r="D12" s="1">
         <f>'[1]Qc, 2020, Summer'!D12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1682027308615961</v>
+        <v>1.0513824577754365</v>
       </c>
       <c r="E12" s="1">
         <f>'[1]Qc, 2020, Summer'!E12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0786603150297605</v>
+        <v>0.97079428352678432</v>
       </c>
       <c r="F12" s="1">
         <f>'[1]Qc, 2020, Summer'!F12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1706346113823152</v>
+        <v>1.0535711502440839</v>
       </c>
       <c r="G12" s="1">
         <f>'[1]Qc, 2020, Summer'!G12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0317795586686298</v>
+        <v>0.92860160280176685</v>
       </c>
       <c r="H12" s="1">
         <f>'[1]Qc, 2020, Summer'!H12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0965806602388315</v>
+        <v>0.98692259421494843</v>
       </c>
       <c r="I12" s="1">
         <f>'[1]Qc, 2020, Summer'!I12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4163526490990985</v>
+        <v>1.2747173841891888</v>
       </c>
       <c r="J12" s="1">
         <f>'[1]Qc, 2020, Summer'!J12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.6579969847722622</v>
+        <v>1.4921972862950361</v>
       </c>
       <c r="K12" s="1">
         <f>'[1]Qc, 2020, Summer'!K12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.7136008719810096</v>
+        <v>1.5422407847829089</v>
       </c>
       <c r="L12" s="1">
         <f>'[1]Qc, 2020, Summer'!L12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.7844901281864693</v>
+        <v>1.6060411153678225</v>
       </c>
       <c r="M12" s="1">
         <f>'[1]Qc, 2020, Summer'!M12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.8117864645604695</v>
+        <v>1.6306078181044226</v>
       </c>
       <c r="N12" s="1">
         <f>'[1]Qc, 2020, Summer'!N12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.8126685894020027</v>
+        <v>1.6314017304618025</v>
       </c>
       <c r="O12" s="1">
         <f>'[1]Qc, 2020, Summer'!O12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.7859800925006732</v>
+        <v>1.6073820832506061</v>
       </c>
       <c r="P12" s="1">
         <f>'[1]Qc, 2020, Summer'!P12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.6431842060607096</v>
+        <v>1.4788657854546388</v>
       </c>
       <c r="Q12" s="1">
         <f>'[1]Qc, 2020, Summer'!Q12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.5688605819658346</v>
+        <v>1.4119745237692514</v>
       </c>
       <c r="R12" s="1">
         <f>'[1]Qc, 2020, Summer'!R12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4959208905054528</v>
+        <v>1.3463288014549075</v>
       </c>
       <c r="S12" s="1">
         <f>'[1]Qc, 2020, Summer'!S12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.509441644807644</v>
+        <v>1.3584974803268797</v>
       </c>
       <c r="T12" s="1">
         <f>'[1]Qc, 2020, Summer'!T12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.5277979132421151</v>
+        <v>1.3750181219179038</v>
       </c>
       <c r="U12" s="1">
         <f>'[1]Qc, 2020, Summer'!U12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.5184969236353962</v>
+        <v>1.3666472312718567</v>
       </c>
       <c r="V12" s="1">
         <f>'[1]Qc, 2020, Summer'!V12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.5464609903956272</v>
+        <v>1.3918148913560646</v>
       </c>
       <c r="W12" s="1">
         <f>'[1]Qc, 2020, Summer'!W12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.6682421428720853</v>
+        <v>1.5014179285848768</v>
       </c>
       <c r="X12" s="1">
         <f>'[1]Qc, 2020, Summer'!X12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.524008932576675</v>
+        <v>1.3716080393190075</v>
       </c>
       <c r="Y12" s="1">
         <f>'[1]Qc, 2020, Summer'!Y12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4355958414461594</v>
+        <v>1.2920362573015436</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -21218,99 +21163,99 @@
       </c>
       <c r="B13" s="1">
         <f>'[1]Qc, 2020, Summer'!B13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.72346489776613376</v>
+        <v>0.65111840798952036</v>
       </c>
       <c r="C13" s="1">
         <f>'[1]Qc, 2020, Summer'!C13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.72346489776613376</v>
+        <v>0.65111840798952036</v>
       </c>
       <c r="D13" s="1">
         <f>'[1]Qc, 2020, Summer'!D13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.71200805510768328</v>
+        <v>0.64080724959691493</v>
       </c>
       <c r="E13" s="1">
         <f>'[1]Qc, 2020, Summer'!E13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.68876002759406141</v>
+        <v>0.61988402483465532</v>
       </c>
       <c r="F13" s="1">
         <f>'[1]Qc, 2020, Summer'!F13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.68059289214898633</v>
+        <v>0.61253360293408765</v>
       </c>
       <c r="G13" s="1">
         <f>'[1]Qc, 2020, Summer'!G13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.54369193240548919</v>
+        <v>0.48932273916494035</v>
       </c>
       <c r="H13" s="1">
         <f>'[1]Qc, 2020, Summer'!H13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.49729956966636069</v>
+        <v>0.44756961269972462</v>
       </c>
       <c r="I13" s="1">
         <f>'[1]Qc, 2020, Summer'!I13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.76328780093636461</v>
+        <v>0.6869590208427282</v>
       </c>
       <c r="J13" s="1">
         <f>'[1]Qc, 2020, Summer'!J13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.90013648108470179</v>
+        <v>0.81012283297623167</v>
       </c>
       <c r="K13" s="1">
         <f>'[1]Qc, 2020, Summer'!K13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0131976716766269</v>
+        <v>0.91187790450896411</v>
       </c>
       <c r="L13" s="1">
         <f>'[1]Qc, 2020, Summer'!L13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0329883853534818</v>
+        <v>0.92968954681813354</v>
       </c>
       <c r="M13" s="1">
         <f>'[1]Qc, 2020, Summer'!M13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1543119130144199</v>
+        <v>1.0388807217129779</v>
       </c>
       <c r="N13" s="1">
         <f>'[1]Qc, 2020, Summer'!N13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1474942456563779</v>
+        <v>1.0327448210907402</v>
       </c>
       <c r="O13" s="1">
         <f>'[1]Qc, 2020, Summer'!O13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1573983586218588</v>
+        <v>1.0416585227596729</v>
       </c>
       <c r="P13" s="1">
         <f>'[1]Qc, 2020, Summer'!P13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0906833817071968</v>
+        <v>0.98161504353647722</v>
       </c>
       <c r="Q13" s="1">
         <f>'[1]Qc, 2020, Summer'!Q13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0791797097382609</v>
+        <v>0.97126173876443478</v>
       </c>
       <c r="R13" s="1">
         <f>'[1]Qc, 2020, Summer'!R13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.87160117969369866</v>
+        <v>0.78444106172432881</v>
       </c>
       <c r="S13" s="1">
         <f>'[1]Qc, 2020, Summer'!S13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.78718566497922593</v>
+        <v>0.70846709848130329</v>
       </c>
       <c r="T13" s="1">
         <f>'[1]Qc, 2020, Summer'!T13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.78061400704588579</v>
+        <v>0.70255260634129724</v>
       </c>
       <c r="U13" s="1">
         <f>'[1]Qc, 2020, Summer'!U13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.75590733568958124</v>
+        <v>0.68031660212062317</v>
       </c>
       <c r="V13" s="1">
         <f>'[1]Qc, 2020, Summer'!V13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.77253149618827943</v>
+        <v>0.69527834656945153</v>
       </c>
       <c r="W13" s="1">
         <f>'[1]Qc, 2020, Summer'!W13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.8105795767868319</v>
+        <v>0.72952161910814872</v>
       </c>
       <c r="X13" s="1">
         <f>'[1]Qc, 2020, Summer'!X13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.78751829825868214</v>
+        <v>0.70876646843281399</v>
       </c>
       <c r="Y13" s="1">
         <f>'[1]Qc, 2020, Summer'!Y13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.77934977742922251</v>
+        <v>0.70141479968630027</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -21319,99 +21264,99 @@
       </c>
       <c r="B14" s="1">
         <f>'[1]Qc, 2020, Summer'!B14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1533767578155301</v>
+        <v>1.0380390820339771</v>
       </c>
       <c r="C14" s="1">
         <f>'[1]Qc, 2020, Summer'!C14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3249276327678916</v>
+        <v>1.1924348694911024</v>
       </c>
       <c r="D14" s="1">
         <f>'[1]Qc, 2020, Summer'!D14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.86895375990902413</v>
+        <v>0.78205838391812166</v>
       </c>
       <c r="E14" s="1">
         <f>'[1]Qc, 2020, Summer'!E14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1809648918125</v>
+        <v>1.06286840263125</v>
       </c>
       <c r="F14" s="1">
         <f>'[1]Qc, 2020, Summer'!F14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0820597621073971</v>
+        <v>0.9738537858966575</v>
       </c>
       <c r="G14" s="1">
         <f>'[1]Qc, 2020, Summer'!G14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0563117047753348</v>
+        <v>0.95068053429780131</v>
       </c>
       <c r="H14" s="1">
         <f>'[1]Qc, 2020, Summer'!H14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2893080190033861</v>
+        <v>1.1603772171030475</v>
       </c>
       <c r="I14" s="1">
         <f>'[1]Qc, 2020, Summer'!I14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2560155108806932</v>
+        <v>1.1304139597926237</v>
       </c>
       <c r="J14" s="1">
         <f>'[1]Qc, 2020, Summer'!J14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3772651569049295</v>
+        <v>1.2395386412144367</v>
       </c>
       <c r="K14" s="1">
         <f>'[1]Qc, 2020, Summer'!K14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4027278209059073</v>
+        <v>1.2624550388153166</v>
       </c>
       <c r="L14" s="1">
         <f>'[1]Qc, 2020, Summer'!L14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2683659845372124</v>
+        <v>1.1415293860834912</v>
       </c>
       <c r="M14" s="1">
         <f>'[1]Qc, 2020, Summer'!M14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3033873860061629</v>
+        <v>1.1730486474055468</v>
       </c>
       <c r="N14" s="1">
         <f>'[1]Qc, 2020, Summer'!N14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.366147393296395</v>
+        <v>1.2295326539667555</v>
       </c>
       <c r="O14" s="1">
         <f>'[1]Qc, 2020, Summer'!O14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3401410571773262</v>
+        <v>1.2061269514595938</v>
       </c>
       <c r="P14" s="1">
         <f>'[1]Qc, 2020, Summer'!P14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3732704466583769</v>
+        <v>1.2359434019925395</v>
       </c>
       <c r="Q14" s="1">
         <f>'[1]Qc, 2020, Summer'!Q14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4301696143445746</v>
+        <v>1.2871526529101174</v>
       </c>
       <c r="R14" s="1">
         <f>'[1]Qc, 2020, Summer'!R14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4306431876719476</v>
+        <v>1.2875788689047529</v>
       </c>
       <c r="S14" s="1">
         <f>'[1]Qc, 2020, Summer'!S14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4176328977411909</v>
+        <v>1.2758696079670719</v>
       </c>
       <c r="T14" s="1">
         <f>'[1]Qc, 2020, Summer'!T14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3211038806135413</v>
+        <v>1.188993492552187</v>
       </c>
       <c r="U14" s="1">
         <f>'[1]Qc, 2020, Summer'!U14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.421208309374959</v>
+        <v>1.2790874784374631</v>
       </c>
       <c r="V14" s="1">
         <f>'[1]Qc, 2020, Summer'!V14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4342144763354214</v>
+        <v>1.2907930287018794</v>
       </c>
       <c r="W14" s="1">
         <f>'[1]Qc, 2020, Summer'!W14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3348424347619927</v>
+        <v>1.2013581912857936</v>
       </c>
       <c r="X14" s="1">
         <f>'[1]Qc, 2020, Summer'!X14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1901561166678127</v>
+        <v>1.0711405050010314</v>
       </c>
       <c r="Y14" s="1">
         <f>'[1]Qc, 2020, Summer'!Y14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3210470425230556</v>
+        <v>1.18894233827075</v>
       </c>
     </row>
   </sheetData>
